--- a/data/trans_orig/P69$dolorEspalda-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P69$dolorEspalda-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>61454</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52458</v>
+        <v>54097</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67680</v>
+        <v>68080</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7746561918215288</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6612490462806552</v>
+        <v>0.6819134220964107</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8531405163545572</v>
+        <v>0.8581783779029604</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -765,19 +765,19 @@
         <v>25823</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20193</v>
+        <v>20662</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29421</v>
+        <v>29532</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8009398488878248</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6263117854091209</v>
+        <v>0.6408631188965749</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9125372630568818</v>
+        <v>0.9159759583729183</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>85</v>
@@ -786,19 +786,19 @@
         <v>87277</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>76962</v>
+        <v>78685</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>95291</v>
+        <v>95139</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7822514234343108</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6897981512489365</v>
+        <v>0.7052389495494602</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8540786961715567</v>
+        <v>0.8527150147465936</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>15435</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9063</v>
+        <v>9391</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23284</v>
+        <v>23702</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.194563500836185</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1142471782342991</v>
+        <v>0.118383711342887</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2935100187193928</v>
+        <v>0.2987698381387322</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -836,19 +836,19 @@
         <v>13242</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8610</v>
+        <v>7771</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19599</v>
+        <v>18610</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4107226104101871</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2670535636639959</v>
+        <v>0.2410347647175883</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6078985072611948</v>
+        <v>0.5772259413276813</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -857,19 +857,19 @@
         <v>28677</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20474</v>
+        <v>19754</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39803</v>
+        <v>39366</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.25702735425986</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1835025124579379</v>
+        <v>0.1770496875277198</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3567464291091808</v>
+        <v>0.3528317183050788</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>20934</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13010</v>
+        <v>12860</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29526</v>
+        <v>30156</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.263876842659012</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1639998880932443</v>
+        <v>0.1621092981162231</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3721896157758626</v>
+        <v>0.3801334036027633</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>11589</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6834</v>
+        <v>7098</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17597</v>
+        <v>17693</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3594352331800528</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2119635620246378</v>
+        <v>0.2201579957506108</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5457886524588308</v>
+        <v>0.54877516099567</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>30</v>
@@ -928,19 +928,19 @@
         <v>32522</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23770</v>
+        <v>23085</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>43736</v>
+        <v>42757</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2914905079385922</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2130442996093976</v>
+        <v>0.206903719624483</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3919946266475925</v>
+        <v>0.3832208050585113</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>40066</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31128</v>
+        <v>30894</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49314</v>
+        <v>48993</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5050466723483821</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3923778358687277</v>
+        <v>0.3894310353217661</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.62162930078988</v>
+        <v>0.6175803799780979</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -978,19 +978,19 @@
         <v>20892</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14690</v>
+        <v>14880</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25789</v>
+        <v>25946</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6479979731376027</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4556348124671082</v>
+        <v>0.4615204882557107</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7998703414629533</v>
+        <v>0.8047474077236298</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -999,19 +999,19 @@
         <v>60958</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50762</v>
+        <v>50111</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>71625</v>
+        <v>70886</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5463555448581692</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4549682142068722</v>
+        <v>0.4491397282623895</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6419606976282555</v>
+        <v>0.6353363307000949</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>11590</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6018</v>
+        <v>6143</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20465</v>
+        <v>19246</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1460942856943905</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07585847594093036</v>
+        <v>0.0774295108013542</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2579656103787461</v>
+        <v>0.2426039551936252</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -1049,19 +1049,19 @@
         <v>8506</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4370</v>
+        <v>4046</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14526</v>
+        <v>14512</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2638346181358868</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1355356530289603</v>
+        <v>0.1254793843744142</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.450537384095817</v>
+        <v>0.4501059326390027</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>18</v>
@@ -1070,19 +1070,19 @@
         <v>20096</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12899</v>
+        <v>12648</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>30255</v>
+        <v>29800</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1801179032147179</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1156089540332416</v>
+        <v>0.1133576386402279</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2711727340841309</v>
+        <v>0.2670901555065517</v>
       </c>
     </row>
     <row r="9">
@@ -1099,19 +1099,19 @@
         <v>12191</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6660</v>
+        <v>6717</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20419</v>
+        <v>20690</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1536739512176442</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08395466085091925</v>
+        <v>0.08467618014040597</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.257383783821742</v>
+        <v>0.2608103508785365</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -1120,19 +1120,19 @@
         <v>5659</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2019</v>
+        <v>2675</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11834</v>
+        <v>12000</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.175523631029013</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06261602472414243</v>
+        <v>0.08295890029923504</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.36705613016189</v>
+        <v>0.3721937199164539</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -1141,19 +1141,19 @@
         <v>17850</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11231</v>
+        <v>10763</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>28506</v>
+        <v>26205</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1599878891302369</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1006608730285182</v>
+        <v>0.09646552652281402</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2554913506652255</v>
+        <v>0.2348686684241447</v>
       </c>
     </row>
     <row r="10">
@@ -1170,19 +1170,19 @@
         <v>7065</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3060</v>
+        <v>3050</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13696</v>
+        <v>14290</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08906238667766005</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03857312395769458</v>
+        <v>0.0384485604973031</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1726375769669629</v>
+        <v>0.1801335535304806</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6286</v>
+        <v>6367</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05726220210787124</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1949810425109963</v>
+        <v>0.1974887967541087</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1212,19 +1212,19 @@
         <v>8912</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4139</v>
+        <v>4155</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15905</v>
+        <v>15461</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07987303503882445</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03709553632790561</v>
+        <v>0.03724411333239355</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1425510859694184</v>
+        <v>0.1385724180899005</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>103768</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>91748</v>
+        <v>92539</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>113945</v>
+        <v>113749</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7108310658670283</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6284906593378747</v>
+        <v>0.6339103630970216</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7805442325148579</v>
+        <v>0.7792074022591213</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>38</v>
@@ -1266,19 +1266,19 @@
         <v>40534</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>33850</v>
+        <v>34001</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>45742</v>
+        <v>45783</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7677279898425803</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.641129300597882</v>
+        <v>0.644003223400458</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8663669931581932</v>
+        <v>0.8671485594408768</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>133</v>
@@ -1287,19 +1287,19 @@
         <v>144301</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>130976</v>
+        <v>130512</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>156839</v>
+        <v>156766</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.725943245370921</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6589084776300561</v>
+        <v>0.6565746296503265</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7890182985973937</v>
+        <v>0.7886536106629296</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>63613</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>52017</v>
+        <v>51637</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>78220</v>
+        <v>76011</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4357612892702106</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3563264819830048</v>
+        <v>0.353725617196062</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5358255394958436</v>
+        <v>0.5206903140207625</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -1337,19 +1337,19 @@
         <v>24009</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15956</v>
+        <v>16810</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31070</v>
+        <v>30864</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4547366753451401</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3022167535931455</v>
+        <v>0.3183973327172495</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5884792270661637</v>
+        <v>0.5845826849095692</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>81</v>
@@ -1358,19 +1358,19 @@
         <v>87621</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>73920</v>
+        <v>71325</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>101749</v>
+        <v>101997</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4408012707047644</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.371871820279595</v>
+        <v>0.3588206587945099</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5118760377663076</v>
+        <v>0.5131226405290528</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>48342</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37331</v>
+        <v>37533</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61129</v>
+        <v>60871</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3311494142094308</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2557232011391057</v>
+        <v>0.2571115864842959</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.418743155809524</v>
+        <v>0.4169798124950611</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1408,19 +1408,19 @@
         <v>12084</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6592</v>
+        <v>6474</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19448</v>
+        <v>18593</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2288736466209634</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.124857603104935</v>
+        <v>0.1226282505720111</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3683481732493106</v>
+        <v>0.3521515191030088</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -1429,19 +1429,19 @@
         <v>60425</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46796</v>
+        <v>48190</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>75570</v>
+        <v>74363</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.303984329514176</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2354171929773451</v>
+        <v>0.2424308477911191</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3801728799358042</v>
+        <v>0.3741042925432509</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>70059</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57255</v>
+        <v>57120</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>82994</v>
+        <v>82310</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4799157663090416</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3922083080071526</v>
+        <v>0.3912812323721234</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5685234002985263</v>
+        <v>0.5638420308990107</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -1479,19 +1479,19 @@
         <v>22442</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14969</v>
+        <v>15228</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29823</v>
+        <v>30115</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4250607521096417</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2835159354841424</v>
+        <v>0.2884283705277743</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5648570890761547</v>
+        <v>0.5703995773352248</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>85</v>
@@ -1500,19 +1500,19 @@
         <v>92500</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>79392</v>
+        <v>77926</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>108037</v>
+        <v>106822</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4653459308355787</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3994016678086658</v>
+        <v>0.3920296806904356</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5435081183625544</v>
+        <v>0.5373938170334445</v>
       </c>
     </row>
     <row r="15">
@@ -1529,19 +1529,19 @@
         <v>43207</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>32782</v>
+        <v>31271</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>55880</v>
+        <v>56386</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2959773064977477</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.224563914206566</v>
+        <v>0.2142132822031005</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3827879861115244</v>
+        <v>0.3862558657505129</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>20</v>
@@ -1550,19 +1550,19 @@
         <v>20920</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>13773</v>
+        <v>14009</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>28014</v>
+        <v>28151</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3962315787772716</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2608614578585511</v>
+        <v>0.2653366745493084</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5306004601224191</v>
+        <v>0.5331955330397447</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>59</v>
@@ -1571,19 +1571,19 @@
         <v>64127</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>50792</v>
+        <v>50619</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>77066</v>
+        <v>77411</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.322605469372973</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2555232201506495</v>
+        <v>0.2546521360895583</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3876989614070956</v>
+        <v>0.3894352369441939</v>
       </c>
     </row>
     <row r="16">
@@ -1600,19 +1600,19 @@
         <v>32566</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23038</v>
+        <v>23307</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44988</v>
+        <v>43554</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2230863754462614</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1578151425975775</v>
+        <v>0.1596548359394764</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3081765088583329</v>
+        <v>0.2983556705940335</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1621,19 +1621,19 @@
         <v>8451</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4078</v>
+        <v>4123</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15074</v>
+        <v>14975</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1600727725342915</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07723466207707438</v>
+        <v>0.07809609000373434</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.285506374028399</v>
+        <v>0.2836375466843719</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -1642,19 +1642,19 @@
         <v>41018</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>29576</v>
+        <v>30177</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53941</v>
+        <v>53450</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2063495676919109</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.148787407504987</v>
+        <v>0.1518138544171793</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2713657000083182</v>
+        <v>0.2688963800260157</v>
       </c>
     </row>
     <row r="17">
@@ -1671,19 +1671,19 @@
         <v>17244</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10660</v>
+        <v>10492</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28203</v>
+        <v>28333</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1181241502750284</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07302065752309188</v>
+        <v>0.07187325615543241</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1931937433913609</v>
+        <v>0.1940862168600114</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1692,19 +1692,19 @@
         <v>6279</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2189</v>
+        <v>2148</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12561</v>
+        <v>12726</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1189310234428861</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04146172280740412</v>
+        <v>0.04069059656810817</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2379193498933183</v>
+        <v>0.241033259289156</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -1713,19 +1713,19 @@
         <v>23523</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15301</v>
+        <v>15544</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34139</v>
+        <v>36055</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.118338460843993</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07697581791637294</v>
+        <v>0.07819855041672136</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1717475285665547</v>
+        <v>0.1813825877888944</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>85306</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>74193</v>
+        <v>74782</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>92852</v>
+        <v>93756</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7759003791264278</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6748265837488439</v>
+        <v>0.6801834924927125</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.844536577119563</v>
+        <v>0.8527596386240827</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>40</v>
@@ -1767,19 +1767,19 @@
         <v>39862</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>33605</v>
+        <v>33757</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>43598</v>
+        <v>43707</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8566375966339875</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.722171685368228</v>
+        <v>0.7254469415014724</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9369325290405477</v>
+        <v>0.9392716567904348</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>117</v>
@@ -1788,19 +1788,19 @@
         <v>125167</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>113423</v>
+        <v>113100</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>134169</v>
+        <v>134162</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7999097889865681</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7248516235335465</v>
+        <v>0.7227875855946754</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8574382339605877</v>
+        <v>0.8573907387421315</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>47039</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>36203</v>
+        <v>34858</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58032</v>
+        <v>57372</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4278433357498229</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.329289327393989</v>
+        <v>0.3170513299743871</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5278353561770552</v>
+        <v>0.5218312723495397</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -1838,19 +1838,19 @@
         <v>30642</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24089</v>
+        <v>23283</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36915</v>
+        <v>36190</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6585015101810036</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5176762773842095</v>
+        <v>0.5003602208576986</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7933109294507358</v>
+        <v>0.7777206846001177</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>74</v>
@@ -1859,19 +1859,19 @@
         <v>77681</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65870</v>
+        <v>64758</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>91332</v>
+        <v>90252</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4964358240528955</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4209549439479073</v>
+        <v>0.4138492285087733</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5836796429955278</v>
+        <v>0.5767766614524267</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>27837</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18566</v>
+        <v>17806</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39113</v>
+        <v>38613</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2531940345474949</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1688634520328</v>
+        <v>0.1619547798425685</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3557537019977965</v>
+        <v>0.351208327417487</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -1909,19 +1909,19 @@
         <v>15169</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9588</v>
+        <v>9830</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22560</v>
+        <v>22186</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3259895040599936</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.206050741752306</v>
+        <v>0.2112530243894995</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4848115367307921</v>
+        <v>0.4767709932489253</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>40</v>
@@ -1930,19 +1930,19 @@
         <v>43006</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>32418</v>
+        <v>32641</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>56872</v>
+        <v>55742</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2748417494111297</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2071722343955556</v>
+        <v>0.208597482382208</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3634504826912803</v>
+        <v>0.3562336594605657</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>61564</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>49800</v>
+        <v>50589</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>71743</v>
+        <v>73799</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.559958618599903</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4529565717015478</v>
+        <v>0.4601348642740892</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6525389209247642</v>
+        <v>0.6712386774537061</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>30</v>
@@ -1980,19 +1980,19 @@
         <v>29353</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>22385</v>
+        <v>22525</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>35356</v>
+        <v>35076</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6307940989112312</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.481059667558338</v>
+        <v>0.48405461518969</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7598066160071831</v>
+        <v>0.7537797416995786</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>87</v>
@@ -2001,19 +2001,19 @@
         <v>90917</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>77064</v>
+        <v>77878</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>104054</v>
+        <v>103296</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5810234773098941</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4924949129725282</v>
+        <v>0.4976974213377058</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6649808272827471</v>
+        <v>0.660135838691047</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>33503</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23956</v>
+        <v>23269</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44947</v>
+        <v>45354</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3047264757466958</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2178900952113592</v>
+        <v>0.2116427457597561</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4088142521407209</v>
+        <v>0.4125168685408733</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -2051,19 +2051,19 @@
         <v>21568</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14691</v>
+        <v>14859</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28241</v>
+        <v>28274</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4634991882348277</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3157093651802024</v>
+        <v>0.319331153197115</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6069050110548418</v>
+        <v>0.6076145959007134</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -2072,19 +2072,19 @@
         <v>55071</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>43354</v>
+        <v>42975</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>68754</v>
+        <v>69281</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3519418647137086</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2770617919296875</v>
+        <v>0.2746438585639511</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4393898613061576</v>
+        <v>0.4427575508231897</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>22274</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14516</v>
+        <v>13654</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>33095</v>
+        <v>32900</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2025937507822899</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1320331521680181</v>
+        <v>0.1241921617726831</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3010137971032744</v>
+        <v>0.2992443758008004</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -2122,19 +2122,19 @@
         <v>12819</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7416</v>
+        <v>7415</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>19511</v>
+        <v>18896</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2754757604554808</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1593666251779893</v>
+        <v>0.1593597221417024</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4192930100030325</v>
+        <v>0.4060719741099635</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>32</v>
@@ -2143,19 +2143,19 @@
         <v>35093</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>25691</v>
+        <v>24364</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>48568</v>
+        <v>47337</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2242672007189377</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1641862927639672</v>
+        <v>0.1557028295072858</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3103818394040059</v>
+        <v>0.3025187509965158</v>
       </c>
     </row>
     <row r="24">
@@ -2172,19 +2172,19 @@
         <v>8342</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3687</v>
+        <v>3134</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17241</v>
+        <v>16941</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07587219832880893</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03353703034118449</v>
+        <v>0.02850500253753996</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1568171981911511</v>
+        <v>0.1540916233655744</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -2193,19 +2193,19 @@
         <v>3839</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>954</v>
+        <v>967</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8564</v>
+        <v>8913</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0825023118571936</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02049734218235958</v>
+        <v>0.02078259681059497</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1840369497770916</v>
+        <v>0.1915453852320202</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -2214,19 +2214,19 @@
         <v>12181</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6535</v>
+        <v>6331</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20913</v>
+        <v>21166</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07784384310474318</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04176300306261853</v>
+        <v>0.04045854445451324</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1336461228895768</v>
+        <v>0.1352675083093796</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>103229</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>92041</v>
+        <v>92379</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>112470</v>
+        <v>112385</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7577694992577588</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6756372737995285</v>
+        <v>0.6781170224756546</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.825601761530527</v>
+        <v>0.8249783942196642</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>63</v>
@@ -2268,19 +2268,19 @@
         <v>65357</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>56307</v>
+        <v>55739</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>73484</v>
+        <v>73206</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7380729100632573</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6358738633237124</v>
+        <v>0.6294565520892025</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8298460861388006</v>
+        <v>0.8267090687881778</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>165</v>
@@ -2289,19 +2289,19 @@
         <v>168587</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>155108</v>
+        <v>153448</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>181184</v>
+        <v>179241</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7500100759568872</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6900469734217383</v>
+        <v>0.6826606928813581</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8060525384985338</v>
+        <v>0.797408547685056</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>78153</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>67143</v>
+        <v>66725</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>88870</v>
+        <v>89540</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5736941862731055</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4928759076273777</v>
+        <v>0.489800568782479</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.652364095288629</v>
+        <v>0.6572777555559918</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>43</v>
@@ -2339,19 +2339,19 @@
         <v>45125</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>35555</v>
+        <v>35479</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>54106</v>
+        <v>55151</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5095968504336434</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4015176512302885</v>
+        <v>0.4006590336000478</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6110140223587133</v>
+        <v>0.6228107294096304</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>119</v>
@@ -2360,19 +2360,19 @@
         <v>123279</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>107643</v>
+        <v>109211</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>137148</v>
+        <v>138429</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5484431970624782</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4788845886358014</v>
+        <v>0.4858572520161766</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6101476089771269</v>
+        <v>0.6158461003775261</v>
       </c>
     </row>
     <row r="27">
@@ -2389,19 +2389,19 @@
         <v>52105</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>40206</v>
+        <v>40644</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>62797</v>
+        <v>64188</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3824818405087791</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2951389433857236</v>
+        <v>0.2983505258194994</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4609681029347593</v>
+        <v>0.4711823694050756</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>28</v>
@@ -2410,19 +2410,19 @@
         <v>28911</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>20214</v>
+        <v>20229</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>38993</v>
+        <v>38031</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3264919717008246</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2282772841175982</v>
+        <v>0.228439656744725</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4403465028950755</v>
+        <v>0.4294761335164021</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>80</v>
@@ -2431,19 +2431,19 @@
         <v>81016</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>68014</v>
+        <v>67790</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>96445</v>
+        <v>95566</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3604247681724952</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3025835697101195</v>
+        <v>0.3015867161396728</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4290667926775981</v>
+        <v>0.425154666828114</v>
       </c>
     </row>
     <row r="28">
@@ -2460,19 +2460,19 @@
         <v>74224</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>63675</v>
+        <v>63232</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>86350</v>
+        <v>84893</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5448518150140229</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4674159526349978</v>
+        <v>0.4641595743959693</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6338604633258301</v>
+        <v>0.6231677967135885</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>39</v>
@@ -2481,19 +2481,19 @@
         <v>41230</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>32075</v>
+        <v>31560</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>51569</v>
+        <v>50071</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4656056379081759</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3622190919857157</v>
+        <v>0.3564090107986262</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5823682110504973</v>
+        <v>0.5654451698000025</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>113</v>
@@ -2502,19 +2502,19 @@
         <v>115454</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>100643</v>
+        <v>100134</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>131104</v>
+        <v>129746</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5136329767132392</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4477410021813641</v>
+        <v>0.4454755307544517</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5832595045468838</v>
+        <v>0.5772139089571242</v>
       </c>
     </row>
     <row r="29">
@@ -2531,19 +2531,19 @@
         <v>52771</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>41641</v>
+        <v>40974</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>64319</v>
+        <v>64808</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3873739776198377</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3056712423559437</v>
+        <v>0.300778639459398</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4721442576029314</v>
+        <v>0.4757319649972093</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>38</v>
@@ -2552,19 +2552,19 @@
         <v>39174</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>30240</v>
+        <v>29917</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>48991</v>
+        <v>48573</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4423930771889407</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3414949828438185</v>
+        <v>0.3378466131482478</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5532505315578515</v>
+        <v>0.5485297665285112</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>92</v>
@@ -2573,19 +2573,19 @@
         <v>91946</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>78263</v>
+        <v>77191</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>108362</v>
+        <v>106111</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.409048617780818</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3481770407672216</v>
+        <v>0.3434075801636676</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4820826650863947</v>
+        <v>0.4720690949405694</v>
       </c>
     </row>
     <row r="30">
@@ -2602,19 +2602,19 @@
         <v>39655</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>29295</v>
+        <v>30442</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>50858</v>
+        <v>51813</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2910916246931249</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2150441544575735</v>
+        <v>0.2234653724923686</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.373328602237741</v>
+        <v>0.3803418966752355</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>20</v>
@@ -2623,19 +2623,19 @@
         <v>20715</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>14061</v>
+        <v>14184</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>29602</v>
+        <v>29064</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2339333871466824</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1587941509379951</v>
+        <v>0.1601748151896454</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3342943965269133</v>
+        <v>0.3282170586674687</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>59</v>
@@ -2644,19 +2644,19 @@
         <v>60370</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>46435</v>
+        <v>46431</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>72994</v>
+        <v>74030</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2685742763403232</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2065819790752747</v>
+        <v>0.206564558235612</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3247370538834888</v>
+        <v>0.3293463116377645</v>
       </c>
     </row>
     <row r="31">
@@ -2673,19 +2673,19 @@
         <v>10857</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6079</v>
+        <v>5512</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>18055</v>
+        <v>17679</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07969844059293824</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04462074720676837</v>
+        <v>0.04046176945308201</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1325319401882299</v>
+        <v>0.1297766134747988</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>11</v>
@@ -2694,19 +2694,19 @@
         <v>11661</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>6352</v>
+        <v>7099</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>19637</v>
+        <v>21078</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1316867186393154</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07173744219047976</v>
+        <v>0.08016879229837592</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2217546696126281</v>
+        <v>0.2380319868386018</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>23</v>
@@ -2715,19 +2715,19 @@
         <v>22518</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>14732</v>
+        <v>14391</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>33183</v>
+        <v>33939</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1001790960029553</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06553862932253691</v>
+        <v>0.06402451841095447</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1476229303078932</v>
+        <v>0.1509861962001509</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>353757</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>335356</v>
+        <v>333454</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>372126</v>
+        <v>370998</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7503056370517724</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7112782480957366</v>
+        <v>0.7072429394357618</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7892653238315847</v>
+        <v>0.7868738769702831</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>167</v>
@@ -2769,19 +2769,19 @@
         <v>171575</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>159680</v>
+        <v>157988</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>182337</v>
+        <v>183550</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7794578571851941</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7254192725872813</v>
+        <v>0.7177327577425068</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8283479674172423</v>
+        <v>0.8338607545681462</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>500</v>
@@ -2790,19 +2790,19 @@
         <v>525332</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>500723</v>
+        <v>502178</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>547205</v>
+        <v>546356</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7595840928127164</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.72400084746952</v>
+        <v>0.7261050829676298</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7912102802791806</v>
+        <v>0.7899833629964365</v>
       </c>
     </row>
     <row r="33">
@@ -2819,19 +2819,19 @@
         <v>204240</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>181318</v>
+        <v>183758</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>225428</v>
+        <v>228962</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4331848574900252</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3845677611404195</v>
+        <v>0.3897433772710261</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4781247226262521</v>
+        <v>0.4856202332883515</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>111</v>
@@ -2840,19 +2840,19 @@
         <v>113018</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>98113</v>
+        <v>97496</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>127379</v>
+        <v>126836</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.5134340852877562</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4457231826801007</v>
+        <v>0.4429179215040394</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.5786791822972083</v>
+        <v>0.5762096929885986</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>301</v>
@@ -2861,19 +2861,19 @@
         <v>317257</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>289552</v>
+        <v>290317</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>342779</v>
+        <v>342965</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.4587262710277726</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4186673132849512</v>
+        <v>0.419772627578116</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.4956288314082727</v>
+        <v>0.4958969238729041</v>
       </c>
     </row>
     <row r="34">
@@ -2890,19 +2890,19 @@
         <v>149217</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>128715</v>
+        <v>128855</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>170856</v>
+        <v>170867</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3164837226835816</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2729994480930364</v>
+        <v>0.2732959653132987</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3623789901640502</v>
+        <v>0.3624026539284253</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>66</v>
@@ -2911,19 +2911,19 @@
         <v>67753</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>55026</v>
+        <v>54836</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>82571</v>
+        <v>81500</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3077970380900666</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2499826198199568</v>
+        <v>0.2491175096472877</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3751146895309611</v>
+        <v>0.3702513128093003</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>205</v>
@@ -2932,19 +2932,19 @@
         <v>216970</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>192497</v>
+        <v>191224</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>242309</v>
+        <v>244672</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3137189583417468</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2783337553679417</v>
+        <v>0.2764930752277935</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3503569665684023</v>
+        <v>0.3537740996175125</v>
       </c>
     </row>
     <row r="35">
@@ -2961,19 +2961,19 @@
         <v>245913</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>222389</v>
+        <v>224723</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>268768</v>
+        <v>267332</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.521571467442312</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4716793852738177</v>
+        <v>0.4766290170674969</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5700461878482095</v>
+        <v>0.5670018662808933</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>111</v>
@@ -2982,19 +2982,19 @@
         <v>113916</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>99141</v>
+        <v>98690</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>128106</v>
+        <v>127830</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.5175159643610313</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.4503939174513055</v>
+        <v>0.448343887092658</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5819819474799803</v>
+        <v>0.5807251949632133</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>344</v>
@@ -3003,19 +3003,19 @@
         <v>359829</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>329989</v>
+        <v>333308</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>384374</v>
+        <v>386561</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.520280697622524</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4771347410317658</v>
+        <v>0.4819339088249364</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5557714096120838</v>
+        <v>0.5589325105985754</v>
       </c>
     </row>
     <row r="36">
@@ -3032,19 +3032,19 @@
         <v>141071</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>121827</v>
+        <v>121875</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>161183</v>
+        <v>161933</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2992060202306581</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.258390417246937</v>
+        <v>0.2584916572404595</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3418639923984502</v>
+        <v>0.3434533710114525</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>88</v>
@@ -3053,19 +3053,19 @@
         <v>90168</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>76990</v>
+        <v>76631</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>105004</v>
+        <v>105090</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4096293551981223</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3497614453508551</v>
+        <v>0.3481299055301779</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4770271555561956</v>
+        <v>0.4774190371140655</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>218</v>
@@ -3074,19 +3074,19 @@
         <v>231239</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>207386</v>
+        <v>206265</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>256874</v>
+        <v>256657</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3343511317790205</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2998622001105888</v>
+        <v>0.2982409999237129</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3714170716350577</v>
+        <v>0.371103540515008</v>
       </c>
     </row>
     <row r="37">
@@ -3103,19 +3103,19 @@
         <v>106686</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>89300</v>
+        <v>88353</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>126882</v>
+        <v>126381</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2262775625735675</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1894013191336443</v>
+        <v>0.1873924258736802</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2691109502259632</v>
+        <v>0.2680494230285334</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>46</v>
@@ -3124,19 +3124,19 @@
         <v>47644</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>35644</v>
+        <v>36628</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>60459</v>
+        <v>60397</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.216444335976834</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1619313647916679</v>
+        <v>0.166400985339355</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2746614329706836</v>
+        <v>0.2743791551200981</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>144</v>
@@ -3145,19 +3145,19 @@
         <v>154330</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>131716</v>
+        <v>132100</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>178167</v>
+        <v>176756</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2231478812817975</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1904501091331066</v>
+        <v>0.1910048197338785</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2576141302133736</v>
+        <v>0.2555731421493981</v>
       </c>
     </row>
     <row r="38">
@@ -3174,19 +3174,19 @@
         <v>43508</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>32596</v>
+        <v>31693</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>59858</v>
+        <v>57932</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.09227914549549156</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06913572457270538</v>
+        <v>0.06721882422434443</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1269570171588757</v>
+        <v>0.1228715741606439</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>23</v>
@@ -3195,19 +3195,19 @@
         <v>23625</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>15752</v>
+        <v>16487</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>33649</v>
+        <v>34144</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1073289172997801</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.07155843227762516</v>
+        <v>0.074898073833478</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1528638663928821</v>
+        <v>0.1551129796159994</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>63</v>
@@ -3216,19 +3216,19 @@
         <v>67133</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>52441</v>
+        <v>52138</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>85889</v>
+        <v>83720</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.09706912860001349</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.07582522091171168</v>
+        <v>0.0753868709165062</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1241875076940045</v>
+        <v>0.1210518082130286</v>
       </c>
     </row>
     <row r="39">
@@ -3489,19 +3489,19 @@
         <v>57235</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>48868</v>
+        <v>49394</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63918</v>
+        <v>63888</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7371514667123966</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6293895291170603</v>
+        <v>0.6361672578046865</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8232307315846427</v>
+        <v>0.8228437822433948</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -3510,19 +3510,19 @@
         <v>31002</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25454</v>
+        <v>25437</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34194</v>
+        <v>34092</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8793860781704085</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.722004417548834</v>
+        <v>0.721545985656759</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9699352192940578</v>
+        <v>0.9670363627068452</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>86</v>
@@ -3531,19 +3531,19 @@
         <v>88237</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77574</v>
+        <v>77350</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96019</v>
+        <v>95970</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7815669261226936</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6871124303663075</v>
+        <v>0.6851308000665625</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8504950520410137</v>
+        <v>0.8500599071122901</v>
       </c>
     </row>
     <row r="5">
@@ -3560,19 +3560,19 @@
         <v>27866</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20519</v>
+        <v>20121</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37625</v>
+        <v>36849</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3638840769207144</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2679435018363351</v>
+        <v>0.262741468591794</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4913161682332813</v>
+        <v>0.4811831012381859</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -3581,19 +3581,19 @@
         <v>19068</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13201</v>
+        <v>12756</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25742</v>
+        <v>24874</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5408857394608969</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3744501917821594</v>
+        <v>0.3618388982158821</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7301926284024997</v>
+        <v>0.7055761445320786</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -3602,19 +3602,19 @@
         <v>46935</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36207</v>
+        <v>36645</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>56940</v>
+        <v>57145</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4196816639483606</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3237542149045007</v>
+        <v>0.3276717033131369</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5091498022273016</v>
+        <v>0.5109815770888957</v>
       </c>
     </row>
     <row r="6">
@@ -3631,19 +3631,19 @@
         <v>18976</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12222</v>
+        <v>12343</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28227</v>
+        <v>27752</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2512148498951662</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1617972023381178</v>
+        <v>0.1634005684710173</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3736737671215111</v>
+        <v>0.367386848011416</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -3652,19 +3652,19 @@
         <v>13011</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7953</v>
+        <v>7791</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19612</v>
+        <v>19453</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.369077262972026</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2256051133204872</v>
+        <v>0.2210031053300383</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5562997089680659</v>
+        <v>0.5517813738999647</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>31</v>
@@ -3673,19 +3673,19 @@
         <v>31988</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22934</v>
+        <v>22616</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>42076</v>
+        <v>42323</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2887191202276258</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2069962059091145</v>
+        <v>0.2041284308423005</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3797781823408778</v>
+        <v>0.3820056735655579</v>
       </c>
     </row>
     <row r="7">
@@ -3702,19 +3702,19 @@
         <v>44211</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35127</v>
+        <v>35714</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52557</v>
+        <v>52774</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5773195393644771</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4586938261701725</v>
+        <v>0.4663667750574613</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6863018398047263</v>
+        <v>0.6891368235525812</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -3723,19 +3723,19 @@
         <v>22101</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16267</v>
+        <v>15518</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27806</v>
+        <v>27578</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6269210197472139</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4614225985209364</v>
+        <v>0.4401867974588176</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7887317812869405</v>
+        <v>0.7822579789931847</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>62</v>
@@ -3744,19 +3744,19 @@
         <v>66313</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>56402</v>
+        <v>55206</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>76308</v>
+        <v>75807</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5929557931636613</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.504333031938463</v>
+        <v>0.4936438743726875</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6823327277013146</v>
+        <v>0.6778513169145927</v>
       </c>
     </row>
     <row r="8">
@@ -3773,19 +3773,19 @@
         <v>19868</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12552</v>
+        <v>12820</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28713</v>
+        <v>28679</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2594411333641025</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1639040225324719</v>
+        <v>0.167410877491201</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3749392849339636</v>
+        <v>0.3745004209766161</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -3794,19 +3794,19 @@
         <v>17077</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10724</v>
+        <v>10431</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22865</v>
+        <v>23251</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4984134514240854</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3129853071388151</v>
+        <v>0.3044623020212622</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6673442409764093</v>
+        <v>0.678610767240826</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>34</v>
@@ -3815,19 +3815,19 @@
         <v>36945</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26882</v>
+        <v>26851</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>47825</v>
+        <v>48894</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3333086360674309</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2425265478736893</v>
+        <v>0.2422474103451601</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4314657346566753</v>
+        <v>0.4411180584893442</v>
       </c>
     </row>
     <row r="9">
@@ -3844,19 +3844,19 @@
         <v>14019</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8281</v>
+        <v>7834</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20258</v>
+        <v>21289</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.183066689871923</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1081301312818765</v>
+        <v>0.1022965760774168</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2645289937688334</v>
+        <v>0.2780008099637755</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -3865,19 +3865,19 @@
         <v>11326</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6214</v>
+        <v>6212</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17934</v>
+        <v>17616</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3305685657253458</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1813537763358816</v>
+        <v>0.1812965564891199</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.523445362446664</v>
+        <v>0.5141569822284885</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>26</v>
@@ -3886,19 +3886,19 @@
         <v>25345</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>17672</v>
+        <v>16918</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>34990</v>
+        <v>34760</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2286602351904812</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1594385901376895</v>
+        <v>0.1526278641776921</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3156707376939197</v>
+        <v>0.3135992614410825</v>
       </c>
     </row>
     <row r="10">
@@ -3915,19 +3915,19 @@
         <v>2899</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7780</v>
+        <v>7980</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08433370879050316</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02455295216242457</v>
+        <v>0.02467374872698353</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2262992268052626</v>
+        <v>0.232107533271788</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>2899</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7864</v>
+        <v>7912</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05555323349110026</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0160932128982333</v>
+        <v>0.01594857384159737</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1506654414367052</v>
+        <v>0.1516002297206655</v>
       </c>
     </row>
     <row r="11">
@@ -3982,19 +3982,19 @@
         <v>70791</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>61339</v>
+        <v>60979</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>78073</v>
+        <v>78478</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7615922384243345</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6599100710242795</v>
+        <v>0.6560310098015077</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8399370568623962</v>
+        <v>0.8442984324198196</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>45</v>
@@ -4003,19 +4003,19 @@
         <v>49089</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>41515</v>
+        <v>41241</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>54913</v>
+        <v>54640</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8004000874810275</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6768960020519265</v>
+        <v>0.6724291098231043</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8953515885232274</v>
+        <v>0.890902324965131</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>111</v>
@@ -4024,19 +4024,19 @@
         <v>119880</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>109388</v>
+        <v>107916</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>130090</v>
+        <v>129633</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7770194027010028</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7090109906274669</v>
+        <v>0.6994711986078711</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8431936024845444</v>
+        <v>0.8402345780987334</v>
       </c>
     </row>
     <row r="12">
@@ -4053,19 +4053,19 @@
         <v>45947</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36218</v>
+        <v>36069</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>55345</v>
+        <v>56184</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5017958838367778</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3955433411179455</v>
+        <v>0.3939133362601824</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6044299470646808</v>
+        <v>0.6136021655909589</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -4074,19 +4074,19 @@
         <v>36424</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>28016</v>
+        <v>27670</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>44792</v>
+        <v>43619</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5736205099245837</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4412038441297193</v>
+        <v>0.4357614514657664</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.705406642188556</v>
+        <v>0.6869384181999032</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>75</v>
@@ -4095,19 +4095,19 @@
         <v>82371</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>70147</v>
+        <v>69020</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>94530</v>
+        <v>95035</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.531208058500508</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4523748080632179</v>
+        <v>0.4451062626717579</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6096227322879707</v>
+        <v>0.6128799267551527</v>
       </c>
     </row>
     <row r="13">
@@ -4124,19 +4124,19 @@
         <v>21063</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13615</v>
+        <v>13914</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30491</v>
+        <v>32100</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2294314530676986</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1483062416303487</v>
+        <v>0.1515546756125848</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.332125671816836</v>
+        <v>0.3496474441781319</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -4145,19 +4145,19 @@
         <v>22254</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15199</v>
+        <v>15014</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30758</v>
+        <v>30442</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3569236952300002</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2437757230198652</v>
+        <v>0.2408019819273904</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4933223348123342</v>
+        <v>0.488247011606173</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -4166,19 +4166,19 @@
         <v>43317</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31325</v>
+        <v>32172</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55254</v>
+        <v>56644</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2809963152719857</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2032073620495065</v>
+        <v>0.2086979870429568</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3584319671848729</v>
+        <v>0.3674460272845904</v>
       </c>
     </row>
     <row r="14">
@@ -4195,19 +4195,19 @@
         <v>53415</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>43470</v>
+        <v>43824</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>62594</v>
+        <v>63248</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5877156675108853</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4783020109052074</v>
+        <v>0.4821923988741834</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6887209112153548</v>
+        <v>0.6959137071404566</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -4216,19 +4216,19 @@
         <v>33912</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>25971</v>
+        <v>25230</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>41778</v>
+        <v>41452</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5529335436682745</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.423455829157579</v>
+        <v>0.4113666099309412</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6811842129998211</v>
+        <v>0.6758695056760873</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>82</v>
@@ -4237,19 +4237,19 @@
         <v>87327</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>73601</v>
+        <v>73608</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>99127</v>
+        <v>99373</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5737012454460847</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4835275958377712</v>
+        <v>0.4835758880246119</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6512272269258845</v>
+        <v>0.6528392910485911</v>
       </c>
     </row>
     <row r="15">
@@ -4266,19 +4266,19 @@
         <v>21578</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13910</v>
+        <v>14468</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>30517</v>
+        <v>31120</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2376978039890207</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1532287531388794</v>
+        <v>0.1593735830005216</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3361771753468424</v>
+        <v>0.3428140879076345</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>27</v>
@@ -4287,19 +4287,19 @@
         <v>30965</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>22977</v>
+        <v>23116</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>39656</v>
+        <v>39321</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.487649452804487</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3618545843385691</v>
+        <v>0.3640438639677712</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.624519885527663</v>
+        <v>0.6192455218339736</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>48</v>
@@ -4308,19 +4308,19 @@
         <v>52543</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>41651</v>
+        <v>41198</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>64889</v>
+        <v>65147</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3405751968428959</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2699766408580438</v>
+        <v>0.2670424940885336</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4206025911008592</v>
+        <v>0.4222775261014242</v>
       </c>
     </row>
     <row r="16">
@@ -4337,19 +4337,19 @@
         <v>22260</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14671</v>
+        <v>14327</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30797</v>
+        <v>31363</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2424729545565056</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1598070163044366</v>
+        <v>0.1560550354745588</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3354564750552053</v>
+        <v>0.3416232983681819</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -4358,19 +4358,19 @@
         <v>21932</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14911</v>
+        <v>13923</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30176</v>
+        <v>30219</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3453895762492923</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2348198924564759</v>
+        <v>0.2192603846761018</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4752291977884652</v>
+        <v>0.4758970591034389</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -4379,19 +4379,19 @@
         <v>44192</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33395</v>
+        <v>33542</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56190</v>
+        <v>57205</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2845518491463312</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2150294152383315</v>
+        <v>0.2159734806451317</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3618085950283083</v>
+        <v>0.3683437012374294</v>
       </c>
     </row>
     <row r="17">
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6642</v>
+        <v>6312</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06089422725011038</v>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1952811575237506</v>
+        <v>0.1855997483165154</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7161</v>
+        <v>7309</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03522213502377933</v>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1217827629568378</v>
+        <v>0.1243126200332408</v>
       </c>
     </row>
     <row r="18">
@@ -4475,19 +4475,19 @@
         <v>58159</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49616</v>
+        <v>49879</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>65710</v>
+        <v>66384</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7310418002118111</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6236536331486789</v>
+        <v>0.6269564450916433</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8259430261752715</v>
+        <v>0.8344157742798402</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>36</v>
@@ -4496,19 +4496,19 @@
         <v>39345</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31895</v>
+        <v>31941</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>45154</v>
+        <v>45109</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.742654381196703</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6020302655137231</v>
+        <v>0.6028972529742235</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8523052334828711</v>
+        <v>0.851448613699241</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>89</v>
@@ -4517,19 +4517,19 @@
         <v>97505</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>85709</v>
+        <v>84888</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>107957</v>
+        <v>106707</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7356836995637617</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6466862462042841</v>
+        <v>0.6404924538821909</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8145489471485379</v>
+        <v>0.8051172964157171</v>
       </c>
     </row>
     <row r="19">
@@ -4546,19 +4546,19 @@
         <v>41313</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31849</v>
+        <v>32644</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50384</v>
+        <v>51714</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5192835442703618</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4003263848027769</v>
+        <v>0.4103202665836887</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6333026335828417</v>
+        <v>0.6500289162911422</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -4567,19 +4567,19 @@
         <v>28966</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21225</v>
+        <v>21466</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36131</v>
+        <v>36445</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5467379021448949</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4006229576629439</v>
+        <v>0.4051764647390819</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6819839817780941</v>
+        <v>0.6879190716675694</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>65</v>
@@ -4588,19 +4588,19 @@
         <v>70278</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57394</v>
+        <v>58085</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>81910</v>
+        <v>81981</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5302578803108868</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4330414058219787</v>
+        <v>0.4382577112594906</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6180178856409415</v>
+        <v>0.6185585118738727</v>
       </c>
     </row>
     <row r="20">
@@ -4617,19 +4617,19 @@
         <v>22299</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14601</v>
+        <v>14030</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31507</v>
+        <v>30987</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2802930707038739</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1835241069361843</v>
+        <v>0.1763459851948974</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3960335388410524</v>
+        <v>0.3894955105183449</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -4638,19 +4638,19 @@
         <v>15094</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9015</v>
+        <v>9001</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22799</v>
+        <v>22839</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2849082605524563</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1701599621709915</v>
+        <v>0.1699054955150238</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4303441652026961</v>
+        <v>0.4310987205755696</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>35</v>
@@ -4659,19 +4659,19 @@
         <v>37393</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27595</v>
+        <v>27816</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>49480</v>
+        <v>49794</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.28213790147794</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2082080777208131</v>
+        <v>0.209871842577148</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3733350673271038</v>
+        <v>0.3757033866474161</v>
       </c>
     </row>
     <row r="21">
@@ -4688,19 +4688,19 @@
         <v>45176</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>36530</v>
+        <v>36078</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>54874</v>
+        <v>55004</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5678477543753564</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4591730519800001</v>
+        <v>0.4534879632724343</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.689748269185705</v>
+        <v>0.6913787374721828</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>18</v>
@@ -4709,19 +4709,19 @@
         <v>20350</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13211</v>
+        <v>13546</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>27489</v>
+        <v>28569</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3841208547576284</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2493696995848342</v>
+        <v>0.2556939388199306</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5188583409243398</v>
+        <v>0.5392509023103007</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>58</v>
@@ -4730,19 +4730,19 @@
         <v>65527</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>52940</v>
+        <v>53857</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>77159</v>
+        <v>78564</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4944065635340633</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3994403202542064</v>
+        <v>0.4063550591894663</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5821718023704505</v>
+        <v>0.5927738647869067</v>
       </c>
     </row>
     <row r="22">
@@ -4759,19 +4759,19 @@
         <v>24387</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16115</v>
+        <v>16414</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34297</v>
+        <v>33178</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3065294413985389</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2025573070408454</v>
+        <v>0.2063193322051315</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.431104695350568</v>
+        <v>0.4170358033489411</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -4780,19 +4780,19 @@
         <v>16923</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10788</v>
+        <v>10443</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24010</v>
+        <v>23908</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3194251426247617</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2036209410433392</v>
+        <v>0.1971227086819039</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4531934908537398</v>
+        <v>0.4512815441974078</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -4801,19 +4801,19 @@
         <v>41309</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30570</v>
+        <v>31378</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>52715</v>
+        <v>52652</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3116842426647544</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2306571177948466</v>
+        <v>0.2367470559491359</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3977415674771861</v>
+        <v>0.3972619901972064</v>
       </c>
     </row>
     <row r="23">
@@ -4830,19 +4830,19 @@
         <v>28916</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>20532</v>
+        <v>20452</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>37133</v>
+        <v>38112</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3634580345923922</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2580756693024649</v>
+        <v>0.2570740236124293</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4667447372562204</v>
+        <v>0.4790517228537124</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>10</v>
@@ -4851,19 +4851,19 @@
         <v>10953</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5954</v>
+        <v>5913</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17881</v>
+        <v>18564</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2067399697426218</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1123791337697683</v>
+        <v>0.1116177404247266</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3375098440792418</v>
+        <v>0.3504089381396137</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>36</v>
@@ -4872,19 +4872,19 @@
         <v>39869</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>28335</v>
+        <v>29663</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>51121</v>
+        <v>51168</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3008130907498872</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2137899178242954</v>
+        <v>0.2238102889845283</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3857153917026407</v>
+        <v>0.3860723363408033</v>
       </c>
     </row>
     <row r="24">
@@ -4904,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6619</v>
+        <v>6030</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04612131779189219</v>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1578403956813456</v>
+        <v>0.1437979093696075</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4477</v>
+        <v>5653</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03193723540524225</v>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1433273848684071</v>
+        <v>0.1809588460942084</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -4943,19 +4943,19 @@
         <v>2932</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>919</v>
+        <v>954</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8848</v>
+        <v>8623</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04006611239824059</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01256047004169783</v>
+        <v>0.01303463097419812</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1209268937762664</v>
+        <v>0.1178458993273123</v>
       </c>
     </row>
     <row r="25">
@@ -4976,19 +4976,19 @@
         <v>57190</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>48684</v>
+        <v>49233</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63860</v>
+        <v>64723</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7388702668388171</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6289820562995353</v>
+        <v>0.6360702237095482</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8250411742540432</v>
+        <v>0.8361971140630855</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>43</v>
@@ -4997,19 +4997,19 @@
         <v>47226</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38768</v>
+        <v>38897</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>53994</v>
+        <v>53983</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.736805733502109</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6048451243109523</v>
+        <v>0.606854345220563</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.842392621632263</v>
+        <v>0.8422196692105365</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>100</v>
@@ -5018,19 +5018,19 @@
         <v>104417</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>91753</v>
+        <v>93545</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>113496</v>
+        <v>114589</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7379350709094613</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6484346195359169</v>
+        <v>0.6611024697700119</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8021009249809332</v>
+        <v>0.8098239149648123</v>
       </c>
     </row>
     <row r="26">
@@ -5047,19 +5047,19 @@
         <v>37245</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28507</v>
+        <v>28407</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>45730</v>
+        <v>46123</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4811920996045345</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3683027691735345</v>
+        <v>0.3670043526585708</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5908129836898858</v>
+        <v>0.5958938235065675</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>38</v>
@@ -5068,19 +5068,19 @@
         <v>39728</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>30349</v>
+        <v>31563</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>47712</v>
+        <v>47541</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6198160935929704</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4734932611979077</v>
+        <v>0.4924299035208178</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7443901635287522</v>
+        <v>0.7417136978126457</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>75</v>
@@ -5089,19 +5089,19 @@
         <v>76974</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>64175</v>
+        <v>65973</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>89248</v>
+        <v>88458</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5439862393667633</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4535373950952891</v>
+        <v>0.4662420318587359</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6307294670202342</v>
+        <v>0.6251476483369129</v>
       </c>
     </row>
     <row r="27">
@@ -5118,19 +5118,19 @@
         <v>14936</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8832</v>
+        <v>8830</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>23517</v>
+        <v>24184</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1929675198231392</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1141104991715147</v>
+        <v>0.1140750574311857</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.303825978311203</v>
+        <v>0.3124517390286004</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>23</v>
@@ -5139,19 +5139,19 @@
         <v>24113</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>16128</v>
+        <v>16442</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>31713</v>
+        <v>33085</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3762059616769182</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2516149349466194</v>
+        <v>0.2565151937290706</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4947737790548305</v>
+        <v>0.5161835503811747</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>37</v>
@@ -5160,19 +5160,19 @@
         <v>39050</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>29032</v>
+        <v>29503</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>50223</v>
+        <v>51037</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2759711903748555</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2051779060866045</v>
+        <v>0.2085014808794151</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3549373759062717</v>
+        <v>0.3606888162787275</v>
       </c>
     </row>
     <row r="28">
@@ -5189,19 +5189,19 @@
         <v>35639</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27002</v>
+        <v>27738</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>44363</v>
+        <v>44996</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.454393458809782</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3442683328160788</v>
+        <v>0.353655627468087</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5656195140667759</v>
+        <v>0.5736993580388693</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>31</v>
@@ -5210,19 +5210,19 @@
         <v>34019</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>25125</v>
+        <v>26073</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>41968</v>
+        <v>42682</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5307505599421473</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3919885482549831</v>
+        <v>0.4067730509598644</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6547697745088052</v>
+        <v>0.6659085250529888</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>67</v>
@@ -5231,19 +5231,19 @@
         <v>69658</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>56261</v>
+        <v>56303</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>81631</v>
+        <v>82344</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4887319293086914</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.394733148468505</v>
+        <v>0.3950316577937402</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5727357786446473</v>
+        <v>0.577731838880608</v>
       </c>
     </row>
     <row r="29">
@@ -5260,19 +5260,19 @@
         <v>18712</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11938</v>
+        <v>11705</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>27590</v>
+        <v>26531</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2385819770966793</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1522030685870766</v>
+        <v>0.149232095655208</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3517725358973916</v>
+        <v>0.338268955181204</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>21</v>
@@ -5281,19 +5281,19 @@
         <v>23085</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>15411</v>
+        <v>14845</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>30796</v>
+        <v>31712</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3601598921508152</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2404303947820829</v>
+        <v>0.231612453460458</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.480467059788399</v>
+        <v>0.4947589912417608</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>40</v>
@@ -5302,19 +5302,19 @@
         <v>41798</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>31458</v>
+        <v>29875</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>54228</v>
+        <v>52574</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2932566515865912</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2207138203076189</v>
+        <v>0.2096074156645354</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3804679053864131</v>
+        <v>0.3688631384293625</v>
       </c>
     </row>
     <row r="30">
@@ -5331,19 +5331,19 @@
         <v>19524</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12522</v>
+        <v>13027</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>28697</v>
+        <v>28297</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2494097447112505</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.15996641539455</v>
+        <v>0.1664094460672311</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3665907523966454</v>
+        <v>0.3614818363311105</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>19</v>
@@ -5352,19 +5352,19 @@
         <v>19282</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12925</v>
+        <v>12096</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>26811</v>
+        <v>27666</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3008301595450117</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2016514149300468</v>
+        <v>0.1887210091347649</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4183009135618153</v>
+        <v>0.4316371070983998</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>38</v>
@@ -5373,19 +5373,19 @@
         <v>38806</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>28773</v>
+        <v>29274</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>50019</v>
+        <v>50514</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2725584494122105</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2020912210354451</v>
+        <v>0.2056057236320289</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3513137029135927</v>
+        <v>0.3547887567774106</v>
       </c>
     </row>
     <row r="31">
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4848</v>
+        <v>4729</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02860920380242939</v>
@@ -5414,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1503114580309173</v>
+        <v>0.1466259433004904</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5667</v>
+        <v>5800</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07033535494442623</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2152888746457775</v>
+        <v>0.2203246487711781</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -5444,19 +5444,19 @@
         <v>2774</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>852</v>
+        <v>890</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6668</v>
+        <v>7647</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04736075852290468</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01453992721160182</v>
+        <v>0.01519292846537249</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1138415817377577</v>
+        <v>0.1305481452067149</v>
       </c>
     </row>
     <row r="32">
@@ -5477,19 +5477,19 @@
         <v>243376</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>228211</v>
+        <v>225928</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>259411</v>
+        <v>257870</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7430092959041255</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6967124577993591</v>
+        <v>0.6897429934117537</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7919651429717014</v>
+        <v>0.7872585153202986</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>152</v>
@@ -5498,19 +5498,19 @@
         <v>166663</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>153245</v>
+        <v>153769</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>177616</v>
+        <v>179150</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7800366982645657</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7172322483835627</v>
+        <v>0.7196885891690772</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8312998425582269</v>
+        <v>0.8384756549216308</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>386</v>
@@ -5519,19 +5519,19 @@
         <v>410038</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>388371</v>
+        <v>386937</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>430274</v>
+        <v>430132</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7576269781299093</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7175929406656062</v>
+        <v>0.7149433259374028</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7950171336333004</v>
+        <v>0.7947547886269387</v>
       </c>
     </row>
     <row r="33">
@@ -5548,19 +5548,19 @@
         <v>152372</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>133003</v>
+        <v>133398</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>169979</v>
+        <v>168643</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4686840910435375</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.409108526693915</v>
+        <v>0.4103240435007243</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.522843344339563</v>
+        <v>0.5187344260557682</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>115</v>
@@ -5569,19 +5569,19 @@
         <v>124186</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>109030</v>
+        <v>108907</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>140092</v>
+        <v>139465</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.5753937758091129</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5051703401034251</v>
+        <v>0.5045990448482811</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.6490909398210539</v>
+        <v>0.646188140988184</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>260</v>
@@ -5590,19 +5590,19 @@
         <v>276558</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>253492</v>
+        <v>251022</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>299743</v>
+        <v>301985</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.5112604188329809</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4686201220595892</v>
+        <v>0.464053404014462</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.5541214813960355</v>
+        <v>0.5582665919341073</v>
       </c>
     </row>
     <row r="34">
@@ -5619,19 +5619,19 @@
         <v>77275</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>63226</v>
+        <v>61753</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>92433</v>
+        <v>92878</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2382796004371127</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1949604451316194</v>
+        <v>0.1904172104436525</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2850212896858084</v>
+        <v>0.2863911516959972</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>69</v>
@@ -5640,19 +5640,19 @@
         <v>74473</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>61687</v>
+        <v>58713</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>90696</v>
+        <v>88871</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3469045488892306</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2873488714486765</v>
+        <v>0.2734924017423629</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.422472470837996</v>
+        <v>0.4139717717412385</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>142</v>
@@ -5661,19 +5661,19 @@
         <v>151748</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>129533</v>
+        <v>131336</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>174505</v>
+        <v>174405</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.281545270482076</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2403286832602875</v>
+        <v>0.2436748400029018</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3237690406722139</v>
+        <v>0.3235836307958318</v>
       </c>
     </row>
     <row r="35">
@@ -5690,19 +5690,19 @@
         <v>178441</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>157395</v>
+        <v>160709</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>197275</v>
+        <v>196785</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.5482830805864161</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4836157178077435</v>
+        <v>0.4937978344175108</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6061499291716352</v>
+        <v>0.6046460738476124</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>99</v>
@@ -5711,19 +5711,19 @@
         <v>110383</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>94412</v>
+        <v>94187</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>124875</v>
+        <v>126348</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.5166286045227552</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.4418773661470411</v>
+        <v>0.4408228845376214</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5844516659778844</v>
+        <v>0.5913463157459647</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>269</v>
@@ -5732,19 +5732,19 @@
         <v>288825</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>266816</v>
+        <v>265731</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>312071</v>
+        <v>309860</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.5357378788624957</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4949134687714661</v>
+        <v>0.4929011479146192</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.578857737910898</v>
+        <v>0.5747550059606914</v>
       </c>
     </row>
     <row r="36">
@@ -5761,19 +5761,19 @@
         <v>84545</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>69949</v>
+        <v>69579</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>102912</v>
+        <v>101717</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.25986032783984</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2149996241789227</v>
+        <v>0.2138618780434373</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3163144554004514</v>
+        <v>0.3126409501419791</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>80</v>
@@ -5782,19 +5782,19 @@
         <v>88049</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>73556</v>
+        <v>73293</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>104158</v>
+        <v>103450</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4098450070977038</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3423844655941635</v>
+        <v>0.3411592332383934</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.484826962223694</v>
+        <v>0.4815307282467947</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>161</v>
@@ -5803,19 +5803,19 @@
         <v>172594</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>152074</v>
+        <v>147109</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>195970</v>
+        <v>195065</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3195105019467175</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2815235292444955</v>
+        <v>0.2723327151114282</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.362785042852672</v>
+        <v>0.3611093364895259</v>
       </c>
     </row>
     <row r="37">
@@ -5832,19 +5832,19 @@
         <v>84720</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>69458</v>
+        <v>69577</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>101764</v>
+        <v>102300</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2596971075543131</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.212914236945133</v>
+        <v>0.2132797008437958</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3119445969682927</v>
+        <v>0.3135876314678778</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>59</v>
@@ -5853,19 +5853,19 @@
         <v>63492</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>50166</v>
+        <v>49850</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>76885</v>
+        <v>77414</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.295540360331722</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2335090934262103</v>
+        <v>0.2320380269767979</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3578815237715143</v>
+        <v>0.3603438400527519</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>140</v>
@@ -5874,19 +5874,19 @@
         <v>148212</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>127422</v>
+        <v>127428</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>168246</v>
+        <v>170180</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2739291512512482</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2355052811714541</v>
+        <v>0.2355155119513595</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3109555012018569</v>
+        <v>0.3145309897047655</v>
       </c>
     </row>
     <row r="38">
@@ -5903,19 +5903,19 @@
         <v>7827</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3887</v>
+        <v>3774</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>15160</v>
+        <v>14339</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.05489805321214703</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02726088378649663</v>
+        <v>0.02646766334132671</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1063297267122749</v>
+        <v>0.1005730843511929</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3</v>
@@ -5924,19 +5924,19 @@
         <v>2849</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>898</v>
+        <v>30</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>7982</v>
+        <v>8445</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02844565069839271</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.008967359125121237</v>
+        <v>0.00029510510445514</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.07968909856953987</v>
+        <v>0.08431024124503823</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>11</v>
@@ -5945,19 +5945,19 @@
         <v>10676</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>5712</v>
+        <v>5660</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>18264</v>
+        <v>17613</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.04398300138971414</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02353232510261353</v>
+        <v>0.02331544189016896</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.07524345528342215</v>
+        <v>0.0725616077773812</v>
       </c>
     </row>
     <row r="39">
@@ -6218,19 +6218,19 @@
         <v>39782</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31970</v>
+        <v>32539</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45522</v>
+        <v>45992</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7404555966751045</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5950370812798632</v>
+        <v>0.6056365368254616</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8472805805384444</v>
+        <v>0.856039568684915</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -6239,19 +6239,19 @@
         <v>25379</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21183</v>
+        <v>20331</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28207</v>
+        <v>28198</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8483558521101386</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7081198207418675</v>
+        <v>0.6796264963696755</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9429043319835657</v>
+        <v>0.9426075870795891</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -6260,19 +6260,19 @@
         <v>65161</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55441</v>
+        <v>55764</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71687</v>
+        <v>71930</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7790469626180063</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6628397405080744</v>
+        <v>0.6666938344333693</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8570650735759516</v>
+        <v>0.8599709038472538</v>
       </c>
     </row>
     <row r="5">
@@ -6289,19 +6289,19 @@
         <v>21825</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14089</v>
+        <v>14812</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29328</v>
+        <v>29810</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4062238660135709</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2622375107505589</v>
+        <v>0.2756877501335515</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5458789514509642</v>
+        <v>0.5548392318719568</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -6310,19 +6310,19 @@
         <v>13669</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8172</v>
+        <v>8439</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19013</v>
+        <v>19668</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4569372817734159</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2731765429748944</v>
+        <v>0.2820953250742161</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6355617959006381</v>
+        <v>0.6574561734620146</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>34</v>
@@ -6331,19 +6331,19 @@
         <v>35494</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>26367</v>
+        <v>26952</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44671</v>
+        <v>44693</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4243619137680644</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3152383278740737</v>
+        <v>0.3222319777645387</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5340732457261493</v>
+        <v>0.5343417178747529</v>
       </c>
     </row>
     <row r="6">
@@ -6360,19 +6360,19 @@
         <v>19179</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12688</v>
+        <v>12554</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26672</v>
+        <v>27577</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3569765885535951</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2361532872528949</v>
+        <v>0.2336601104895719</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4964313410443656</v>
+        <v>0.513288569960261</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -6381,19 +6381,19 @@
         <v>10952</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6125</v>
+        <v>6151</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16636</v>
+        <v>16274</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3661109735317701</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2047357906423748</v>
+        <v>0.2056232119282848</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5561137262690375</v>
+        <v>0.5440062079175273</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -6402,19 +6402,19 @@
         <v>30131</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>21502</v>
+        <v>21267</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>39260</v>
+        <v>38237</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3602435724169312</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2570723771659451</v>
+        <v>0.2542672673721288</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4693862568929243</v>
+        <v>0.4571563894821395</v>
       </c>
     </row>
     <row r="7">
@@ -6431,19 +6431,19 @@
         <v>27737</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19729</v>
+        <v>19958</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34325</v>
+        <v>34516</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5162632708425262</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.367205021258101</v>
+        <v>0.371470828456193</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6388757262760354</v>
+        <v>0.6424345616247341</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -6452,19 +6452,19 @@
         <v>21494</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16040</v>
+        <v>15793</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25811</v>
+        <v>25764</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7184987610983625</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5361866503508499</v>
+        <v>0.527932406632213</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8628124325797391</v>
+        <v>0.861233185809962</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -6473,19 +6473,19 @@
         <v>49231</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40119</v>
+        <v>40123</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58513</v>
+        <v>58148</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5885943675543794</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4796560805992576</v>
+        <v>0.479705133723266</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.699564783308824</v>
+        <v>0.6951983663168508</v>
       </c>
     </row>
     <row r="8">
@@ -6502,19 +6502,19 @@
         <v>13103</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7844</v>
+        <v>7491</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21020</v>
+        <v>20990</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2438808319857663</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1459907979948622</v>
+        <v>0.1394302094368013</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3912435642466543</v>
+        <v>0.3906833625321833</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -6523,19 +6523,19 @@
         <v>13342</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8068</v>
+        <v>7476</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19275</v>
+        <v>18649</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4460033694259469</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.269707877317545</v>
+        <v>0.2498994024069715</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6443372765805169</v>
+        <v>0.6234138858187813</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -6544,19 +6544,19 @@
         <v>26445</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>18233</v>
+        <v>17857</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>35606</v>
+        <v>35176</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3161715302441991</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.217985304491279</v>
+        <v>0.2134976612771981</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4256957711612988</v>
+        <v>0.4205516835600965</v>
       </c>
     </row>
     <row r="9">
@@ -6573,19 +6573,19 @@
         <v>12721</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6649</v>
+        <v>6957</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19985</v>
+        <v>20345</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2367694862753897</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1237570692217572</v>
+        <v>0.129494118080775</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.371971055187624</v>
+        <v>0.3786813700584059</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -6594,19 +6594,19 @@
         <v>8910</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4593</v>
+        <v>4493</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15021</v>
+        <v>14684</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2978504979977469</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1535412977776456</v>
+        <v>0.1502004087438107</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5021226830305257</v>
+        <v>0.4908527684436026</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>20</v>
@@ -6615,19 +6615,19 @@
         <v>21631</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>14236</v>
+        <v>13678</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>30930</v>
+        <v>30598</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2586155853975499</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1702062632655055</v>
+        <v>0.1635344207024538</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3697925515303996</v>
+        <v>0.3658212417863672</v>
       </c>
     </row>
     <row r="10">
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6250</v>
+        <v>6169</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02321238798451002</v>
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1163336129395668</v>
+        <v>0.1148257972786876</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4409</v>
+        <v>4117</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02725494851154199</v>
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1473708564181939</v>
+        <v>0.1376362213896031</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -6689,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7053</v>
+        <v>6807</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02465824121271625</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08432847426829704</v>
+        <v>0.08138413878534161</v>
       </c>
     </row>
     <row r="11">
@@ -6719,19 +6719,19 @@
         <v>72296</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>61745</v>
+        <v>61704</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>80822</v>
+        <v>80295</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7454408340210835</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6366482198280538</v>
+        <v>0.6362283192548631</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8333538577499192</v>
+        <v>0.8279153535757841</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>48</v>
@@ -6740,19 +6740,19 @@
         <v>50500</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>43041</v>
+        <v>44124</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>53900</v>
+        <v>53975</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9090650769930474</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7747832014122721</v>
+        <v>0.7942886133480562</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9702593259576797</v>
+        <v>0.9716175957399145</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>111</v>
@@ -6761,19 +6761,19 @@
         <v>122795</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>111583</v>
+        <v>111178</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>132335</v>
+        <v>131998</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8050308746558977</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7315226094564964</v>
+        <v>0.7288673638967493</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.867571808961746</v>
+        <v>0.8653644791358185</v>
       </c>
     </row>
     <row r="12">
@@ -6790,19 +6790,19 @@
         <v>41677</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>31768</v>
+        <v>32035</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>52100</v>
+        <v>52386</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.429728663531065</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3275611028635427</v>
+        <v>0.330316998256441</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5371974688900594</v>
+        <v>0.5401539411087949</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -6811,19 +6811,19 @@
         <v>29581</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>21856</v>
+        <v>21314</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>37338</v>
+        <v>36483</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5324855386455276</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3934277636992251</v>
+        <v>0.3836752925315057</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6721327458520034</v>
+        <v>0.6567295874286574</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>62</v>
@@ -6832,19 +6832,19 @@
         <v>71257</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>56458</v>
+        <v>58856</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>82663</v>
+        <v>83754</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4671515188021299</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3701298396961486</v>
+        <v>0.3858539878543156</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5419307618127182</v>
+        <v>0.5490823577839452</v>
       </c>
     </row>
     <row r="13">
@@ -6861,19 +6861,19 @@
         <v>32690</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22781</v>
+        <v>23407</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43227</v>
+        <v>43630</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3370615025365202</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2348899418431299</v>
+        <v>0.2413456483881021</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4457155258021084</v>
+        <v>0.4498703500681043</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -6882,19 +6882,19 @@
         <v>25051</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17806</v>
+        <v>18069</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32953</v>
+        <v>33098</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4509473912252077</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3205345358365088</v>
+        <v>0.3252634808888846</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5931999513120366</v>
+        <v>0.5958026247778275</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -6903,19 +6903,19 @@
         <v>57740</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44976</v>
+        <v>46710</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>69993</v>
+        <v>70920</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3785374147328177</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2948555207900232</v>
+        <v>0.3062226384588222</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4588669694628451</v>
+        <v>0.4649407973741636</v>
       </c>
     </row>
     <row r="14">
@@ -6932,19 +6932,19 @@
         <v>64100</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>53767</v>
+        <v>53836</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>73762</v>
+        <v>73199</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6609354770349204</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5543887932162914</v>
+        <v>0.5550993498994816</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.760561919520927</v>
+        <v>0.7547519155639543</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>36</v>
@@ -6953,19 +6953,19 @@
         <v>37372</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29035</v>
+        <v>28099</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44208</v>
+        <v>43553</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6727454074145212</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5226562643332434</v>
+        <v>0.5058121628006286</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7957998602829571</v>
+        <v>0.7840108123390136</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>93</v>
@@ -6974,19 +6974,19 @@
         <v>101472</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>89395</v>
+        <v>88651</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>112970</v>
+        <v>113910</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6652365159178646</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5860612923010987</v>
+        <v>0.5811824636103097</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7406144528043032</v>
+        <v>0.7467787107904558</v>
       </c>
     </row>
     <row r="15">
@@ -7003,19 +7003,19 @@
         <v>20659</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13031</v>
+        <v>13557</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>30413</v>
+        <v>31022</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2130135497077693</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1343609172253987</v>
+        <v>0.1397826133006553</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3135836814455882</v>
+        <v>0.3198629725863179</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>18</v>
@@ -7024,19 +7024,19 @@
         <v>18141</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>11306</v>
+        <v>12028</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>25928</v>
+        <v>26396</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3265638713305902</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2035288523745282</v>
+        <v>0.2165243025904424</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4667409001279502</v>
+        <v>0.4751548764746272</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>35</v>
@@ -7045,19 +7045,19 @@
         <v>38800</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>27805</v>
+        <v>28664</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>50174</v>
+        <v>50094</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2543672522930244</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1822879263734485</v>
+        <v>0.1879147785219951</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3289310894381864</v>
+        <v>0.3284119715749724</v>
       </c>
     </row>
     <row r="16">
@@ -7074,19 +7074,19 @@
         <v>16715</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9816</v>
+        <v>9580</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27035</v>
+        <v>26413</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1723452889875994</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1012095607624893</v>
+        <v>0.09877669121551232</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2787526662067502</v>
+        <v>0.2723470567034375</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -7095,19 +7095,19 @@
         <v>19148</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12446</v>
+        <v>12350</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27289</v>
+        <v>27203</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3446880250352678</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2240384261690375</v>
+        <v>0.2223195469856694</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4912289829289132</v>
+        <v>0.4896917125319947</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -7116,19 +7116,19 @@
         <v>35863</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25123</v>
+        <v>25379</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47862</v>
+        <v>48565</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2351105031004941</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1647058116464508</v>
+        <v>0.1663845895966826</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3137791488880483</v>
+        <v>0.3183836890605696</v>
       </c>
     </row>
     <row r="17">
@@ -7145,19 +7145,19 @@
         <v>3143</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8690</v>
+        <v>8670</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0324116953996799</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01023554164903973</v>
+        <v>0.01009474002869757</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0896025669803034</v>
+        <v>0.08939359246648365</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -7166,19 +7166,19 @@
         <v>3425</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9448</v>
+        <v>9273</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06164553019780116</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01715221332057572</v>
+        <v>0.01690940881257518</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1700836025747886</v>
+        <v>0.1669204529811847</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -7187,19 +7187,19 @@
         <v>6568</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13712</v>
+        <v>13808</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04305831702426386</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01672348931873767</v>
+        <v>0.01673753730615395</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08989385928921098</v>
+        <v>0.0905238037534863</v>
       </c>
     </row>
     <row r="18">
@@ -7220,19 +7220,19 @@
         <v>88290</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>78066</v>
+        <v>78260</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>95621</v>
+        <v>95975</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8031144485668662</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7101066906104049</v>
+        <v>0.7118707383385852</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8697989085878636</v>
+        <v>0.8730180948872674</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>55</v>
@@ -7241,19 +7241,19 @@
         <v>55623</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48793</v>
+        <v>49255</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>60493</v>
+        <v>60545</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.859085585398959</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7535913783743849</v>
+        <v>0.7607308497433009</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9342955545299906</v>
+        <v>0.9350992851196172</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>138</v>
@@ -7262,19 +7262,19 @@
         <v>143914</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>132693</v>
+        <v>133369</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>153633</v>
+        <v>153779</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8238606036479773</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7596270150353523</v>
+        <v>0.763493498873614</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.879502037021327</v>
+        <v>0.8803371831662895</v>
       </c>
     </row>
     <row r="19">
@@ -7291,19 +7291,19 @@
         <v>36280</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27085</v>
+        <v>26606</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>47937</v>
+        <v>47977</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.330015898904688</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2463685988066697</v>
+        <v>0.2420182106984274</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.436048382194534</v>
+        <v>0.4364154308456816</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -7312,19 +7312,19 @@
         <v>42418</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33912</v>
+        <v>34281</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49320</v>
+        <v>49022</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.655133710570506</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5237580529615573</v>
+        <v>0.5294619466409247</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7617340519742949</v>
+        <v>0.7571371118857536</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>75</v>
@@ -7333,19 +7333,19 @@
         <v>78698</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65544</v>
+        <v>65283</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>91982</v>
+        <v>92572</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4505234483704891</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3752181356540991</v>
+        <v>0.3737270792975959</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5265682563872844</v>
+        <v>0.5299477796431619</v>
       </c>
     </row>
     <row r="20">
@@ -7362,19 +7362,19 @@
         <v>45169</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>35069</v>
+        <v>35014</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>55514</v>
+        <v>55301</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4108675601914237</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3189958399040279</v>
+        <v>0.3185004754918037</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5049690917128571</v>
+        <v>0.5030305625212302</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -7383,19 +7383,19 @@
         <v>29745</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21848</v>
+        <v>20761</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37913</v>
+        <v>37229</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4594046506054517</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3374338135601127</v>
+        <v>0.320651184692041</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5855574998523791</v>
+        <v>0.5749849735639316</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>70</v>
@@ -7404,19 +7404,19 @@
         <v>74914</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>61726</v>
+        <v>60951</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>88680</v>
+        <v>89035</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.42885822577208</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3533602041309596</v>
+        <v>0.3489280913339136</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5076638542965581</v>
+        <v>0.5096997404260486</v>
       </c>
     </row>
     <row r="21">
@@ -7433,19 +7433,19 @@
         <v>64381</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>53774</v>
+        <v>53759</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>75199</v>
+        <v>75618</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.585630984648124</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4891476172199181</v>
+        <v>0.4890048554006967</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6840315687239785</v>
+        <v>0.6878402520498196</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>45</v>
@@ -7454,19 +7454,19 @@
         <v>46133</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>38220</v>
+        <v>37837</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>52407</v>
+        <v>52887</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7125186340155318</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.590295730627497</v>
+        <v>0.584376915700226</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8094116034508845</v>
+        <v>0.8168223083216779</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>106</v>
@@ -7475,19 +7475,19 @@
         <v>110515</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>96781</v>
+        <v>98101</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>123661</v>
+        <v>123572</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6326629193317252</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5540399967499703</v>
+        <v>0.5615960948221533</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7079208917958637</v>
+        <v>0.7074094095942794</v>
       </c>
     </row>
     <row r="22">
@@ -7504,19 +7504,19 @@
         <v>33584</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24702</v>
+        <v>23948</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43953</v>
+        <v>44196</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3054897874250296</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2246982471384859</v>
+        <v>0.2178410858539277</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.399810240185178</v>
+        <v>0.4020202894843894</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -7525,19 +7525,19 @@
         <v>27569</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19815</v>
+        <v>19437</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35562</v>
+        <v>35868</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4257897773580271</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3060429059290658</v>
+        <v>0.3002019568303843</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5492420820872496</v>
+        <v>0.5539788632047236</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>59</v>
@@ -7546,19 +7546,19 @@
         <v>61153</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>48129</v>
+        <v>49038</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74473</v>
+        <v>74885</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3500799527971049</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.275521142006537</v>
+        <v>0.2807299533343215</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4263331127032974</v>
+        <v>0.4286916094760702</v>
       </c>
     </row>
     <row r="23">
@@ -7575,19 +7575,19 @@
         <v>28548</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>19341</v>
+        <v>19657</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>38426</v>
+        <v>39634</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2596830133884404</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1759354796562764</v>
+        <v>0.1788099231097816</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3495309381622876</v>
+        <v>0.360519116199549</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>17</v>
@@ -7596,19 +7596,19 @@
         <v>17558</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10612</v>
+        <v>11309</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>24992</v>
+        <v>25047</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2711720617499645</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1639024263728166</v>
+        <v>0.174662500103197</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3860004627368158</v>
+        <v>0.3868378550292892</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>43</v>
@@ -7617,19 +7617,19 @@
         <v>46106</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>34481</v>
+        <v>33979</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>59775</v>
+        <v>58265</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2639415221937483</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1973935679584428</v>
+        <v>0.1945196058750752</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3421946547882384</v>
+        <v>0.3335486400865201</v>
       </c>
     </row>
     <row r="24">
@@ -7646,19 +7646,19 @@
         <v>3064</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>925</v>
+        <v>936</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8038</v>
+        <v>9602</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02786916568470641</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.008414372677036009</v>
+        <v>0.008517012779403083</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07311750067708279</v>
+        <v>0.08734054712116851</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -7680,19 +7680,19 @@
         <v>3064</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9307</v>
+        <v>8126</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0175392337590682</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005288565624534126</v>
+        <v>0.005327767940295802</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05327860686283381</v>
+        <v>0.04652152755178771</v>
       </c>
     </row>
     <row r="25">
@@ -7713,19 +7713,19 @@
         <v>59493</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>50121</v>
+        <v>49709</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>68062</v>
+        <v>67947</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6801044955202536</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5729645981422378</v>
+        <v>0.568263917979857</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7780639484066968</v>
+        <v>0.7767541957872007</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -7734,19 +7734,19 @@
         <v>52253</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44148</v>
+        <v>44107</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>58079</v>
+        <v>58031</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7907230333787926</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6680673484517761</v>
+        <v>0.6674460542370114</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8788743345092396</v>
+        <v>0.8781500436292364</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>105</v>
@@ -7755,19 +7755,19 @@
         <v>111746</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>99324</v>
+        <v>98856</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>122934</v>
+        <v>121087</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7277084928040549</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6468160142747552</v>
+        <v>0.6437665935425456</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8005623824462759</v>
+        <v>0.7885381728631294</v>
       </c>
     </row>
     <row r="26">
@@ -7784,19 +7784,19 @@
         <v>50333</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>41356</v>
+        <v>41009</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>59178</v>
+        <v>59493</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5753931174743223</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4727644671406346</v>
+        <v>0.4688056001890725</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6765104028082172</v>
+        <v>0.6801097706252501</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>42</v>
@@ -7805,19 +7805,19 @@
         <v>45366</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>37025</v>
+        <v>36769</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>52769</v>
+        <v>52111</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6865003857528066</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5602778887315006</v>
+        <v>0.5564118864413755</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7985316292107472</v>
+        <v>0.7885755830254061</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>89</v>
@@ -7826,19 +7826,19 @@
         <v>95699</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>83200</v>
+        <v>83256</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>107655</v>
+        <v>108589</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6232074368436799</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5418104445203755</v>
+        <v>0.5421759919671552</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7010649722930997</v>
+        <v>0.7071487140692679</v>
       </c>
     </row>
     <row r="27">
@@ -7855,19 +7855,19 @@
         <v>38912</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>30023</v>
+        <v>29910</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>48779</v>
+        <v>49731</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4448343217815273</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3432162388445774</v>
+        <v>0.3419276401584468</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5576310675479258</v>
+        <v>0.568507215388997</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>23</v>
@@ -7876,19 +7876,19 @@
         <v>24098</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>16350</v>
+        <v>16038</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>32771</v>
+        <v>32540</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3646567753185975</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2474210308214765</v>
+        <v>0.2426947461093696</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.495902572833023</v>
+        <v>0.4924180899025364</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>60</v>
@@ -7897,19 +7897,19 @@
         <v>63010</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>51272</v>
+        <v>51025</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>77535</v>
+        <v>75403</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4103304151314129</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.333887960639181</v>
+        <v>0.3322853279295273</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.504919821101693</v>
+        <v>0.4910385732529125</v>
       </c>
     </row>
     <row r="28">
@@ -7926,19 +7926,19 @@
         <v>52221</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>41736</v>
+        <v>42074</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>61239</v>
+        <v>61538</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5969793627952266</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4771116089527722</v>
+        <v>0.4809775959344399</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7000646983614368</v>
+        <v>0.7034821276703742</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>36</v>
@@ -7947,19 +7947,19 @@
         <v>40362</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>32061</v>
+        <v>32292</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>47860</v>
+        <v>47841</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6107748676618443</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4851687158133173</v>
+        <v>0.4886643118781708</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7242341646554099</v>
+        <v>0.7239570347501803</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>85</v>
@@ -7968,19 +7968,19 @@
         <v>92583</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>79200</v>
+        <v>80191</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>105496</v>
+        <v>104833</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6029161722026964</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.51576152256839</v>
+        <v>0.5222131148575205</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6870059099023366</v>
+        <v>0.6826878198244232</v>
       </c>
     </row>
     <row r="29">
@@ -7997,19 +7997,19 @@
         <v>27718</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19356</v>
+        <v>18891</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>37823</v>
+        <v>37877</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3168642838804968</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2212698742126263</v>
+        <v>0.2159611563132651</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4323760972413902</v>
+        <v>0.4329992742357471</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>28</v>
@@ -8018,19 +8018,19 @@
         <v>30521</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>22108</v>
+        <v>22008</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>38812</v>
+        <v>38692</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.461862695785634</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3345438462818879</v>
+        <v>0.3330351782367691</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5873244925969731</v>
+        <v>0.5855047953006292</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>54</v>
@@ -8039,19 +8039,19 @@
         <v>58239</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>46908</v>
+        <v>46891</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>70899</v>
+        <v>72008</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3792634453602364</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3054750941370744</v>
+        <v>0.3053623424047571</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4617064381595558</v>
+        <v>0.4689240239154114</v>
       </c>
     </row>
     <row r="30">
@@ -8068,19 +8068,19 @@
         <v>25652</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17720</v>
+        <v>16742</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>35119</v>
+        <v>34011</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2932417374202518</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2025749456036053</v>
+        <v>0.1913912914511118</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4014750450562092</v>
+        <v>0.3888041849913258</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>23</v>
@@ -8089,19 +8089,19 @@
         <v>24985</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>16616</v>
+        <v>16838</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>33797</v>
+        <v>33406</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3780863064627155</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2514451540221834</v>
+        <v>0.2547992286860601</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5114374315428035</v>
+        <v>0.5055205237533174</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>46</v>
@@ -8110,19 +8110,19 @@
         <v>50637</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>38592</v>
+        <v>39360</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>63897</v>
+        <v>64222</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3297540681057994</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2513150392735959</v>
+        <v>0.2563175308002282</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4161067566915068</v>
+        <v>0.4182264966772105</v>
       </c>
     </row>
     <row r="31">
@@ -8139,19 +8139,19 @@
         <v>4749</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1788</v>
+        <v>1817</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>10177</v>
+        <v>10709</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05429097373360882</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02043816310394892</v>
+        <v>0.02077701587412812</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1163426330157104</v>
+        <v>0.1224208060361537</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -8163,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6858</v>
+        <v>5096</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01656415299392734</v>
@@ -8172,7 +8172,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.103771588503713</v>
+        <v>0.0771143412730442</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6</v>
@@ -8181,19 +8181,19 @@
         <v>5844</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2781</v>
+        <v>2663</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>12630</v>
+        <v>12831</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03805547192002538</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01811207870141039</v>
+        <v>0.01734234929209632</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08224901068320498</v>
+        <v>0.0835548102970896</v>
       </c>
     </row>
     <row r="32">
@@ -8214,19 +8214,19 @@
         <v>259861</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>243932</v>
+        <v>242825</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>277998</v>
+        <v>277190</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7464667258197449</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7007093309738359</v>
+        <v>0.6975274579150679</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7985646505335078</v>
+        <v>0.7962445682660476</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>176</v>
@@ -8235,19 +8235,19 @@
         <v>183756</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>172193</v>
+        <v>172626</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>193936</v>
+        <v>193601</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8495516544384887</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7960905089015456</v>
+        <v>0.7980931011079589</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8966126212754721</v>
+        <v>0.8950642832091905</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>416</v>
@@ -8256,19 +8256,19 @@
         <v>443617</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>422524</v>
+        <v>422231</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>462060</v>
+        <v>462327</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7859710900044131</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.748600155604299</v>
+        <v>0.748081232797209</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8186465252177267</v>
+        <v>0.8191199661963452</v>
       </c>
     </row>
     <row r="33">
@@ -8285,19 +8285,19 @@
         <v>150115</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>130553</v>
+        <v>130551</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>170136</v>
+        <v>169287</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4312149129155008</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3750212780400902</v>
+        <v>0.3750145735124971</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4887248422100474</v>
+        <v>0.4862874325706368</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>125</v>
@@ -8306,19 +8306,19 @@
         <v>131034</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>116520</v>
+        <v>116264</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>144939</v>
+        <v>145294</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6058053637045983</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5387029532001733</v>
+        <v>0.537519115903437</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.670087999540992</v>
+        <v>0.6717307811157897</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>260</v>
@@ -8327,19 +8327,19 @@
         <v>281149</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>256801</v>
+        <v>256237</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>305394</v>
+        <v>305595</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.4981217327925999</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4549835171895991</v>
+        <v>0.4539842836894373</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.5410762910672456</v>
+        <v>0.5414326676749553</v>
       </c>
     </row>
     <row r="34">
@@ -8356,19 +8356,19 @@
         <v>135950</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>116457</v>
+        <v>117956</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>155707</v>
+        <v>153081</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3905237738089175</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3345286104487488</v>
+        <v>0.3388347072307031</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4472781426794449</v>
+        <v>0.4397335973822942</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>86</v>
@@ -8377,19 +8377,19 @@
         <v>89846</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>75091</v>
+        <v>75251</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>104947</v>
+        <v>104040</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4153820692280323</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3471657890681583</v>
+        <v>0.3479022951737886</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4851958805437624</v>
+        <v>0.4810040163889165</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>209</v>
@@ -8398,19 +8398,19 @@
         <v>225796</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>203141</v>
+        <v>201459</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>249938</v>
+        <v>248263</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4000500078414279</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3599112274233274</v>
+        <v>0.3569312494696423</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.442823257143179</v>
+        <v>0.439856719785752</v>
       </c>
     </row>
     <row r="35">
@@ -8427,19 +8427,19 @@
         <v>208440</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>189500</v>
+        <v>188545</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>227720</v>
+        <v>226111</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.5987559909382885</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.5443497166541906</v>
+        <v>0.5416053855701742</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6541390439472835</v>
+        <v>0.6495173072441645</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>138</v>
@@ -8448,19 +8448,19 @@
         <v>145362</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>131536</v>
+        <v>130948</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>159067</v>
+        <v>160046</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.6720460150762854</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.6081218770139846</v>
+        <v>0.6054033415427434</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.7354085112642531</v>
+        <v>0.7399347560053867</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>331</v>
@@ -8469,19 +8469,19 @@
         <v>353802</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>328319</v>
+        <v>330785</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>376560</v>
+        <v>377555</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.6268423062071153</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.5816933674115641</v>
+        <v>0.5860636397067324</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.6671634253962926</v>
+        <v>0.6689268647090703</v>
       </c>
     </row>
     <row r="36">
@@ -8498,19 +8498,19 @@
         <v>95064</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>79157</v>
+        <v>78512</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>113191</v>
+        <v>113134</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2730765142767553</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2273823669044837</v>
+        <v>0.225529742196607</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3251467161930136</v>
+        <v>0.3249829150990406</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>87</v>
@@ -8519,19 +8519,19 @@
         <v>89574</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>75644</v>
+        <v>75519</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>104695</v>
+        <v>105459</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4141223261300172</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3497218498504102</v>
+        <v>0.349145205809814</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.484033545160492</v>
+        <v>0.487562230691983</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>174</v>
@@ -8540,19 +8540,19 @@
         <v>184637</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>162051</v>
+        <v>160687</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>208043</v>
+        <v>208125</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3271283062586951</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2871105939474294</v>
+        <v>0.2846950736345913</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3685971359134208</v>
+        <v>0.3687419514560318</v>
       </c>
     </row>
     <row r="37">
@@ -8569,19 +8569,19 @@
         <v>83636</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>67770</v>
+        <v>67593</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>102604</v>
+        <v>103459</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2402477648718341</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1946727549170868</v>
+        <v>0.1941660720578201</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.294735158591546</v>
+        <v>0.2971918185816532</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>67</v>
@@ -8590,19 +8590,19 @@
         <v>70601</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>56103</v>
+        <v>56627</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>84640</v>
+        <v>83884</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3264073825259983</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.259377463026892</v>
+        <v>0.2617988119915161</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3913119486766963</v>
+        <v>0.3878154785327563</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>139</v>
@@ -8611,19 +8611,19 @@
         <v>154237</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>131653</v>
+        <v>134003</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>174523</v>
+        <v>179266</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2732659854733177</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2332539957566478</v>
+        <v>0.237417929821642</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3092089112427381</v>
+        <v>0.3176106768921249</v>
       </c>
     </row>
     <row r="38">
@@ -8640,19 +8640,19 @@
         <v>12204</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>6714</v>
+        <v>6115</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>19662</v>
+        <v>21070</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.03505524899643861</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01928503967461251</v>
+        <v>0.01756706258717588</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05647942569834288</v>
+        <v>0.06052529138787869</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>5</v>
@@ -8661,19 +8661,19 @@
         <v>5334</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1926</v>
+        <v>1885</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>11788</v>
+        <v>12090</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02466260171940221</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.008903274207891901</v>
+        <v>0.008716335414728993</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.054498297357329</v>
+        <v>0.05589473092014268</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>17</v>
@@ -8682,19 +8682,19 @@
         <v>17538</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>10814</v>
+        <v>10379</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>26725</v>
+        <v>27905</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.03107256279413963</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01915936545519582</v>
+        <v>0.01838888204597694</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.04734982945718486</v>
+        <v>0.04943962496691168</v>
       </c>
     </row>
     <row r="39">
@@ -8955,19 +8955,19 @@
         <v>57402</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>48126</v>
+        <v>48491</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64744</v>
+        <v>65155</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7649063521645894</v>
+        <v>0.7649063521645895</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6412976857584626</v>
+        <v>0.6461683070283729</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8627420047387673</v>
+        <v>0.8682220971744676</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>74</v>
@@ -8976,19 +8976,19 @@
         <v>48006</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>42236</v>
+        <v>42373</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52908</v>
+        <v>53053</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8024911587097637</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7060468651703744</v>
+        <v>0.7083314816801367</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8844386751796303</v>
+        <v>0.8868549360673826</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>126</v>
@@ -8997,19 +8997,19 @@
         <v>105407</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>95075</v>
+        <v>94650</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114082</v>
+        <v>114086</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7815776091200136</v>
+        <v>0.7815776091200138</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.70496242225508</v>
+        <v>0.7018136696849054</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.845894897245449</v>
+        <v>0.8459260654944761</v>
       </c>
     </row>
     <row r="5">
@@ -9026,19 +9026,19 @@
         <v>34035</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24692</v>
+        <v>25210</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44851</v>
+        <v>44460</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4535305131812599</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3290351603642058</v>
+        <v>0.3359326021958692</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5976593699340979</v>
+        <v>0.592455134256817</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -9047,19 +9047,19 @@
         <v>36769</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29985</v>
+        <v>30430</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42415</v>
+        <v>42945</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6146460051968308</v>
+        <v>0.6146460051968309</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5012442545343945</v>
+        <v>0.5086867701761796</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7090313916689355</v>
+        <v>0.7178887294232503</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>82</v>
@@ -9068,19 +9068,19 @@
         <v>70804</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>58504</v>
+        <v>58480</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>82143</v>
+        <v>82264</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5249955016643801</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4337973864419641</v>
+        <v>0.4336175108350344</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6090755420178455</v>
+        <v>0.6099711323739956</v>
       </c>
     </row>
     <row r="6">
@@ -9097,19 +9097,19 @@
         <v>23837</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15726</v>
+        <v>15234</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35387</v>
+        <v>34701</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3176343386265709</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2095589804780082</v>
+        <v>0.2030038690711603</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4715471293588795</v>
+        <v>0.4624081424202323</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -9118,19 +9118,19 @@
         <v>24212</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18013</v>
+        <v>17688</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31105</v>
+        <v>30922</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4047414152752463</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3011124397857726</v>
+        <v>0.2956820289278516</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.519965129170564</v>
+        <v>0.5169132563489849</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>50</v>
@@ -9139,19 +9139,19 @@
         <v>48049</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37430</v>
+        <v>36591</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>62081</v>
+        <v>61295</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3562718783914883</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2775343640373901</v>
+        <v>0.2713135555609021</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4603190535201129</v>
+        <v>0.4544931416347059</v>
       </c>
     </row>
     <row r="7">
@@ -9168,19 +9168,19 @@
         <v>57440</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49157</v>
+        <v>48057</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64266</v>
+        <v>63894</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7654176154875609</v>
+        <v>0.765417615487561</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6550387217344015</v>
+        <v>0.6403882240173517</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8563710498537439</v>
+        <v>0.8514161704383183</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>55</v>
@@ -9189,19 +9189,19 @@
         <v>36109</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29623</v>
+        <v>29588</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42327</v>
+        <v>42344</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6036094741127289</v>
+        <v>0.603609474112729</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4951883937347616</v>
+        <v>0.4946145389592659</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7075603875902602</v>
+        <v>0.7078530482777066</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>105</v>
@@ -9210,19 +9210,19 @@
         <v>93548</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81012</v>
+        <v>82984</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>102789</v>
+        <v>102658</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.693645392871564</v>
+        <v>0.6936453928715641</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6006931079220506</v>
+        <v>0.6153136023780482</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7621613474273066</v>
+        <v>0.7611941005804546</v>
       </c>
     </row>
     <row r="8">
@@ -9239,19 +9239,19 @@
         <v>12631</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5444</v>
+        <v>5800</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26164</v>
+        <v>24877</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.168308587844953</v>
+        <v>0.1683085878449531</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07253773930144183</v>
+        <v>0.07729049006267939</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3486460527616771</v>
+        <v>0.3314925348353799</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>25</v>
@@ -9260,19 +9260,19 @@
         <v>17461</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11353</v>
+        <v>11962</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24449</v>
+        <v>24375</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2918955018369893</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1897840445101347</v>
+        <v>0.199962979789481</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4086985659144267</v>
+        <v>0.4074725547543828</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>32</v>
@@ -9281,19 +9281,19 @@
         <v>30092</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20560</v>
+        <v>19886</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>43768</v>
+        <v>42111</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2231272603053993</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1524473843362168</v>
+        <v>0.1474504564585636</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3245306881574582</v>
+        <v>0.3122452833340205</v>
       </c>
     </row>
     <row r="9">
@@ -9310,19 +9310,19 @@
         <v>14787</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6767</v>
+        <v>7182</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27219</v>
+        <v>24885</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1970413578622776</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09017203515428927</v>
+        <v>0.09570743286425737</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3627133731085579</v>
+        <v>0.3316060465627087</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -9331,19 +9331,19 @@
         <v>14173</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9521</v>
+        <v>9475</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20539</v>
+        <v>19668</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.236924827847549</v>
+        <v>0.2369248278475491</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1591568818204402</v>
+        <v>0.158386572154791</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3433329772590601</v>
+        <v>0.3287815457650896</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>33</v>
@@ -9352,19 +9352,19 @@
         <v>28960</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>20125</v>
+        <v>19229</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>42876</v>
+        <v>40700</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2147322185455497</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1492267158538538</v>
+        <v>0.1425826311448394</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.317916469586368</v>
+        <v>0.3017812633104571</v>
       </c>
     </row>
     <row r="10">
@@ -9381,19 +9381,19 @@
         <v>9869</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4438</v>
+        <v>4456</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22890</v>
+        <v>21703</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1315109126265633</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05914054872618784</v>
+        <v>0.05937551683190744</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3050157875634656</v>
+        <v>0.2892075932327922</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -9402,19 +9402,19 @@
         <v>1564</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3964</v>
+        <v>4536</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02614437067231121</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007824791969931738</v>
+        <v>0.008004965672153235</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06626055263839511</v>
+        <v>0.0758318761918155</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -9423,19 +9423,19 @@
         <v>11433</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5808</v>
+        <v>5825</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23752</v>
+        <v>23778</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08477413633605557</v>
+        <v>0.0847741363360556</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04306165491437076</v>
+        <v>0.04319447744942725</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1761192573881706</v>
+        <v>0.17631309536964</v>
       </c>
     </row>
     <row r="11">
@@ -9456,19 +9456,19 @@
         <v>98530</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>87512</v>
+        <v>86947</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>109397</v>
+        <v>108324</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7448924210958976</v>
+        <v>0.7448924210958979</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6615951937608233</v>
+        <v>0.6573268853662092</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8270515909286735</v>
+        <v>0.8189398615674848</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>113</v>
@@ -9477,19 +9477,19 @@
         <v>84268</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>76621</v>
+        <v>76177</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>91345</v>
+        <v>90346</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7947874934887599</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7226603361388028</v>
+        <v>0.7184726801554395</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8615333148598626</v>
+        <v>0.8521086419826847</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>191</v>
@@ -9498,19 +9498,19 @@
         <v>182798</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>167641</v>
+        <v>169966</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>193208</v>
+        <v>196338</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7670920242985013</v>
+        <v>0.7670920242985014</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7034852347566841</v>
+        <v>0.7132440586072338</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8107776413457581</v>
+        <v>0.8239127076964902</v>
       </c>
     </row>
     <row r="12">
@@ -9527,19 +9527,19 @@
         <v>77106</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>63489</v>
+        <v>63795</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>88852</v>
+        <v>89659</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5829250106102651</v>
+        <v>0.5829250106102654</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4799818962361911</v>
+        <v>0.4822918812977037</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6717261271302645</v>
+        <v>0.6778274744694149</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>92</v>
@@ -9548,19 +9548,19 @@
         <v>67620</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>58376</v>
+        <v>58457</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>75643</v>
+        <v>76541</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6377648928969536</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.550577622453481</v>
+        <v>0.5513440936881312</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.71343846056796</v>
+        <v>0.7219124139961248</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>154</v>
@@ -9569,19 +9569,19 @@
         <v>144725</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>129054</v>
+        <v>129697</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>160343</v>
+        <v>162315</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.6073246871325533</v>
+        <v>0.6073246871325532</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5415593168104543</v>
+        <v>0.5442593455896791</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.672860429613129</v>
+        <v>0.6811357196777563</v>
       </c>
     </row>
     <row r="13">
@@ -9598,19 +9598,19 @@
         <v>52672</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39876</v>
+        <v>40610</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67325</v>
+        <v>66574</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4018042692324245</v>
+        <v>0.4018042692324246</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3041910029419963</v>
+        <v>0.3097899873179361</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5135812927216512</v>
+        <v>0.5078567955233763</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -9619,19 +9619,19 @@
         <v>43036</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33761</v>
+        <v>34886</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51323</v>
+        <v>52202</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4058973925000149</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3184251236466128</v>
+        <v>0.3290364446315394</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4840613197853179</v>
+        <v>0.4923509098577973</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>92</v>
@@ -9640,19 +9640,19 @@
         <v>95708</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>80177</v>
+        <v>78328</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>111378</v>
+        <v>112690</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4036345064883162</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3381356749849532</v>
+        <v>0.3303396574325467</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4697206911109593</v>
+        <v>0.4752550965222061</v>
       </c>
     </row>
     <row r="14">
@@ -9669,19 +9669,19 @@
         <v>86557</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>71331</v>
+        <v>74717</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>97779</v>
+        <v>99457</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6543786277571029</v>
+        <v>0.6543786277571032</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5392666491669057</v>
+        <v>0.564865390925958</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7392156532788708</v>
+        <v>0.7519031483884072</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>88</v>
@@ -9690,19 +9690,19 @@
         <v>65749</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>56781</v>
+        <v>56896</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73786</v>
+        <v>74324</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6201176996120837</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5355412140449768</v>
+        <v>0.5366210207626044</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6959238491314454</v>
+        <v>0.7009957105582283</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>158</v>
@@ -9711,19 +9711,19 @@
         <v>152306</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>137032</v>
+        <v>135207</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>166932</v>
+        <v>166995</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6391350581279475</v>
+        <v>0.6391350581279476</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5750378531871487</v>
+        <v>0.5673806503917139</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7005117009279601</v>
+        <v>0.7007747656933184</v>
       </c>
     </row>
     <row r="15">
@@ -9740,19 +9740,19 @@
         <v>36926</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>24784</v>
+        <v>24253</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>50894</v>
+        <v>50517</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2791654960018679</v>
+        <v>0.279165496001868</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1873697713682454</v>
+        <v>0.1833537467714887</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3847610162574653</v>
+        <v>0.3819115855759216</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>44</v>
@@ -9761,19 +9761,19 @@
         <v>34850</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>26829</v>
+        <v>26500</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>43552</v>
+        <v>44194</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3286963746207897</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2530459707761614</v>
+        <v>0.2499430302057327</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4107677192241859</v>
+        <v>0.4168176563165144</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>69</v>
@@ -9782,19 +9782,19 @@
         <v>71777</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>57796</v>
+        <v>55764</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>89195</v>
+        <v>87274</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3012030600113689</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2425357483136934</v>
+        <v>0.23400884010622</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.374297766188627</v>
+        <v>0.3662340529756301</v>
       </c>
     </row>
     <row r="16">
@@ -9811,19 +9811,19 @@
         <v>25618</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16253</v>
+        <v>16192</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38578</v>
+        <v>38641</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1936724871186291</v>
+        <v>0.1936724871186292</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1228722435176054</v>
+        <v>0.1224101710909633</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2916530937354271</v>
+        <v>0.2921287218307718</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -9832,19 +9832,19 @@
         <v>27987</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20377</v>
+        <v>21083</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35866</v>
+        <v>36336</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2639594015970345</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1921856907154467</v>
+        <v>0.1988438762036286</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3382758740119283</v>
+        <v>0.3427070795085555</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>57</v>
@@ -9853,19 +9853,19 @@
         <v>53604</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40785</v>
+        <v>41354</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>68154</v>
+        <v>69148</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.224944946239846</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1711513955855992</v>
+        <v>0.1735381354066499</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2860017807456203</v>
+        <v>0.2901724684333217</v>
       </c>
     </row>
     <row r="17">
@@ -9882,19 +9882,19 @@
         <v>14371</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8061</v>
+        <v>7977</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22851</v>
+        <v>23375</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1086489469569359</v>
+        <v>0.108648946956936</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06094386828268336</v>
+        <v>0.06030292210000906</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1727553650367371</v>
+        <v>0.1767191648948532</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -9903,19 +9903,19 @@
         <v>5727</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2697</v>
+        <v>2553</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10940</v>
+        <v>10924</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05401842123122418</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02543255928906419</v>
+        <v>0.02407880045527627</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1031839430642436</v>
+        <v>0.1030356827419839</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -9924,19 +9924,19 @@
         <v>20099</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13082</v>
+        <v>13302</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29837</v>
+        <v>29976</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08434241856248208</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05489585002748543</v>
+        <v>0.05582049901662257</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1252070165300015</v>
+        <v>0.1257910553434902</v>
       </c>
     </row>
     <row r="18">
@@ -9957,19 +9957,19 @@
         <v>53684</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>45171</v>
+        <v>45187</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>60143</v>
+        <v>60333</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7977936695507182</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6712879797352386</v>
+        <v>0.6715311454203604</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8937882776372938</v>
+        <v>0.8966150265453641</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>67</v>
@@ -9978,19 +9978,19 @@
         <v>52305</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>44595</v>
+        <v>44226</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>58433</v>
+        <v>58644</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.7396855686822483</v>
+        <v>0.7396855686822484</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6306473759296716</v>
+        <v>0.6254237803617836</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8263471650656911</v>
+        <v>0.8293311415820817</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>111</v>
@@ -9999,19 +9999,19 @@
         <v>105988</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>94194</v>
+        <v>95640</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>115629</v>
+        <v>115167</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.7680190333949218</v>
+        <v>0.7680190333949217</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6825577629527197</v>
+        <v>0.693031830174585</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8378802529240759</v>
+        <v>0.834532684464614</v>
       </c>
     </row>
     <row r="19">
@@ -10028,19 +10028,19 @@
         <v>40192</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29322</v>
+        <v>30878</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48516</v>
+        <v>49192</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.597293107441585</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4357575461757562</v>
+        <v>0.4588788084683341</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7209959334283347</v>
+        <v>0.7310410602527196</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>59</v>
@@ -10049,19 +10049,19 @@
         <v>49419</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41500</v>
+        <v>41267</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55542</v>
+        <v>55774</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6988687080763905</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5868827654880132</v>
+        <v>0.5835911279581452</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7854506538758634</v>
+        <v>0.7887314564461629</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>93</v>
@@ -10070,19 +10070,19 @@
         <v>89610</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>76640</v>
+        <v>78039</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100090</v>
+        <v>100050</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6493405243422615</v>
+        <v>0.6493405243422614</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5553546963346574</v>
+        <v>0.5654921633801941</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7252816551735155</v>
+        <v>0.7249868045429706</v>
       </c>
     </row>
     <row r="20">
@@ -10099,19 +10099,19 @@
         <v>25631</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17655</v>
+        <v>16462</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>35315</v>
+        <v>34381</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3863222859026501</v>
+        <v>0.3863222859026499</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2661092792300635</v>
+        <v>0.2481246922383558</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5322934984618347</v>
+        <v>0.5182204166869979</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>39</v>
@@ -10120,19 +10120,19 @@
         <v>30630</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23336</v>
+        <v>23040</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38850</v>
+        <v>39143</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4331622341057045</v>
+        <v>0.4331622341057046</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.33000463186871</v>
+        <v>0.3258299094890084</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5494104830009506</v>
+        <v>0.5535463277908526</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>60</v>
@@ -10141,19 +10141,19 @@
         <v>56261</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>43100</v>
+        <v>44316</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>68909</v>
+        <v>67099</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4104885653994393</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3144651199131511</v>
+        <v>0.3233376064239286</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5027712629327942</v>
+        <v>0.4895655268127864</v>
       </c>
     </row>
     <row r="21">
@@ -10170,19 +10170,19 @@
         <v>31836</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23548</v>
+        <v>22647</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>42484</v>
+        <v>41069</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4731198497399607</v>
+        <v>0.4731198497399609</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3499538193756354</v>
+        <v>0.3365556201016837</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6313495928577443</v>
+        <v>0.6103235347918217</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>49</v>
@@ -10191,19 +10191,19 @@
         <v>36864</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>28735</v>
+        <v>29154</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>44633</v>
+        <v>44535</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5213234613113574</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4063617721847442</v>
+        <v>0.4122872878707158</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6311909683007412</v>
+        <v>0.629806309483829</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>76</v>
@@ -10212,19 +10212,19 @@
         <v>68700</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>55538</v>
+        <v>56474</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>81041</v>
+        <v>80024</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.4978194178635588</v>
+        <v>0.4978194178635587</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4024442807172953</v>
+        <v>0.4092262076856441</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5872421027016189</v>
+        <v>0.5798769341427973</v>
       </c>
     </row>
     <row r="22">
@@ -10241,19 +10241,19 @@
         <v>14902</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8324</v>
+        <v>8456</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24636</v>
+        <v>24573</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2214637117187216</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1237027257209881</v>
+        <v>0.1256704028180304</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3661118922760714</v>
+        <v>0.3651832638605929</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -10262,19 +10262,19 @@
         <v>28449</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21258</v>
+        <v>21805</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>36557</v>
+        <v>36351</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4023094739080434</v>
+        <v>0.4023094739080436</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3006186008285893</v>
+        <v>0.3083661934067409</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.516982885195567</v>
+        <v>0.5140683140273009</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -10283,19 +10283,19 @@
         <v>43350</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>33483</v>
+        <v>33044</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>56326</v>
+        <v>55510</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3141292211576388</v>
+        <v>0.3141292211576387</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2426238310330964</v>
+        <v>0.2394431591536949</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4081532436496551</v>
+        <v>0.4022374725327818</v>
       </c>
     </row>
     <row r="23">
@@ -10312,19 +10312,19 @@
         <v>12344</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5934</v>
+        <v>5956</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21537</v>
+        <v>20569</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1834433926626992</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08818357241082471</v>
+        <v>0.08851164410109326</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3200629981834113</v>
+        <v>0.3056811669298313</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>24</v>
@@ -10333,19 +10333,19 @@
         <v>19232</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12609</v>
+        <v>13250</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26566</v>
+        <v>27231</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.2719789308660354</v>
+        <v>0.2719789308660355</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1783107371097504</v>
+        <v>0.1873822319456939</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3756913924245203</v>
+        <v>0.3850944505742923</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>34</v>
@@ -10354,19 +10354,19 @@
         <v>31576</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>22478</v>
+        <v>22318</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>42209</v>
+        <v>42376</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2288090714142541</v>
+        <v>0.228809071414254</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1628830355035384</v>
+        <v>0.1617233809840186</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3058553582763072</v>
+        <v>0.3070707338303937</v>
       </c>
     </row>
     <row r="24">
@@ -10383,19 +10383,19 @@
         <v>7024</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2275</v>
+        <v>2399</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15436</v>
+        <v>14479</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1043780718054509</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03381199518424191</v>
+        <v>0.03565528613437891</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.22939628575288</v>
+        <v>0.2151771215072052</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -10404,19 +10404,19 @@
         <v>13160</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7513</v>
+        <v>7888</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>21291</v>
+        <v>21749</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.1861050155520187</v>
+        <v>0.1861050155520188</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1062530071768838</v>
+        <v>0.1115481605117151</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3010925212622209</v>
+        <v>0.3075721469411601</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>20</v>
@@ -10425,19 +10425,19 @@
         <v>20183</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>12913</v>
+        <v>12337</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>31949</v>
+        <v>29892</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1462550214529258</v>
+        <v>0.1462550214529257</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09356831506767384</v>
+        <v>0.08940016683812038</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2315129602949112</v>
+        <v>0.2166075752154839</v>
       </c>
     </row>
     <row r="25">
@@ -10458,19 +10458,19 @@
         <v>75786</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>65444</v>
+        <v>63918</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>84826</v>
+        <v>83540</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.7100447710416991</v>
+        <v>0.7100447710416993</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.613151650143397</v>
+        <v>0.5988510757974481</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7947424317074048</v>
+        <v>0.782697859191603</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>115</v>
@@ -10479,19 +10479,19 @@
         <v>80825</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>72356</v>
+        <v>71682</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>88285</v>
+        <v>87834</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.7641208264486592</v>
+        <v>0.7641208264486591</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6840582864490237</v>
+        <v>0.6776824878168924</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8346485018496822</v>
+        <v>0.8303897869591366</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>185</v>
@@ -10500,19 +10500,19 @@
         <v>156611</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>143369</v>
+        <v>144442</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>168634</v>
+        <v>169282</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.7369608390277396</v>
+        <v>0.7369608390277397</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6746489273981477</v>
+        <v>0.6797000589045503</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7935378582824096</v>
+        <v>0.7965853129352235</v>
       </c>
     </row>
     <row r="26">
@@ -10529,19 +10529,19 @@
         <v>85009</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>75701</v>
+        <v>75611</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>92499</v>
+        <v>92381</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7964557561230021</v>
+        <v>0.7964557561230022</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7092452162547715</v>
+        <v>0.7084072917938198</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8666345467441496</v>
+        <v>0.8655263275585701</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>104</v>
@@ -10550,19 +10550,19 @@
         <v>76952</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>69721</v>
+        <v>68685</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>83861</v>
+        <v>83538</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7275080501819039</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.659145246964004</v>
+        <v>0.6493460561334122</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7928253223390274</v>
+        <v>0.7897700014885627</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>181</v>
@@ -10571,19 +10571,19 @@
         <v>161961</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>149584</v>
+        <v>149535</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>172659</v>
+        <v>172754</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7621374034505312</v>
+        <v>0.762137403450531</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7038967243683617</v>
+        <v>0.7036646894506353</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8124805579099378</v>
+        <v>0.8129275872800485</v>
       </c>
     </row>
     <row r="27">
@@ -10600,19 +10600,19 @@
         <v>35568</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>25712</v>
+        <v>26056</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>45846</v>
+        <v>47606</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.335535009735612</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2425508886906303</v>
+        <v>0.2458009294164839</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4324845140367709</v>
+        <v>0.4490927977829497</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>67</v>
@@ -10621,19 +10621,19 @@
         <v>48130</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>40108</v>
+        <v>38973</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>57146</v>
+        <v>56977</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4580714917921105</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3817275594731146</v>
+        <v>0.3709241153880802</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5438892364944903</v>
+        <v>0.542277094924169</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>101</v>
@@ -10642,19 +10642,19 @@
         <v>83698</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>70625</v>
+        <v>71577</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>96897</v>
+        <v>99376</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3965317624637306</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3345965996997092</v>
+        <v>0.3391074808221358</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4590645355536614</v>
+        <v>0.4708113089222637</v>
       </c>
     </row>
     <row r="28">
@@ -10671,19 +10671,19 @@
         <v>65652</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>55211</v>
+        <v>54675</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>75718</v>
+        <v>75276</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.6150983846147392</v>
+        <v>0.6150983846147393</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5172775437344057</v>
+        <v>0.5122540039642284</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7094056768507735</v>
+        <v>0.70527191928777</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>99</v>
@@ -10692,19 +10692,19 @@
         <v>69608</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>60484</v>
+        <v>59539</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>77738</v>
+        <v>77226</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.6580780234331133</v>
+        <v>0.6580780234331131</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5718134961163505</v>
+        <v>0.5628823551593499</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7349340326483692</v>
+        <v>0.7300965422056299</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>160</v>
@@ -10713,19 +10713,19 @@
         <v>135260</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>121213</v>
+        <v>122173</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>148423</v>
+        <v>148971</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.6364912704631016</v>
+        <v>0.6364912704631018</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5703894531774005</v>
+        <v>0.5749051031051894</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6984322492012968</v>
+        <v>0.7010106254065392</v>
       </c>
     </row>
     <row r="29">
@@ -10742,19 +10742,19 @@
         <v>32675</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>23640</v>
+        <v>24377</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>43232</v>
+        <v>42995</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3061304377342512</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2214830646729682</v>
+        <v>0.22838638683141</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4050476278618466</v>
+        <v>0.4028262273510312</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>44</v>
@@ -10763,19 +10763,19 @@
         <v>34155</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>26435</v>
+        <v>25585</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>43937</v>
+        <v>43683</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.3229011805619396</v>
+        <v>0.3229011805619397</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2499135934295292</v>
+        <v>0.241879455219393</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4153813405655484</v>
+        <v>0.4129824478517838</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>74</v>
@@ -10784,19 +10784,19 @@
         <v>66829</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>53938</v>
+        <v>55525</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>80032</v>
+        <v>81762</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3144779854747316</v>
+        <v>0.3144779854747317</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2538128994738661</v>
+        <v>0.2612821577804006</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3766067451973799</v>
+        <v>0.3847449097739112</v>
       </c>
     </row>
     <row r="30">
@@ -10813,19 +10813,19 @@
         <v>24689</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16426</v>
+        <v>16660</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>35243</v>
+        <v>35110</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2313134571916607</v>
+        <v>0.2313134571916608</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1538935723703567</v>
+        <v>0.1560898253019953</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3301933198211804</v>
+        <v>0.3289459621999049</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>47</v>
@@ -10834,19 +10834,19 @@
         <v>34096</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>25707</v>
+        <v>25898</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>42846</v>
+        <v>42170</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3223414036973295</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2430327489801236</v>
+        <v>0.2448425903865921</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4050632350322083</v>
+        <v>0.3986747406095041</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>69</v>
@@ -10855,19 +10855,19 @@
         <v>58785</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>46936</v>
+        <v>47555</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>72392</v>
+        <v>72005</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2766221317674489</v>
+        <v>0.276622131767449</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2208675862721891</v>
+        <v>0.2237788751775155</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3406519880273869</v>
+        <v>0.3388328887396304</v>
       </c>
     </row>
     <row r="31">
@@ -10884,19 +10884,19 @@
         <v>8249</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3756</v>
+        <v>3854</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>14571</v>
+        <v>15011</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.07728566519678789</v>
+        <v>0.07728566519678788</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03519348905438059</v>
+        <v>0.03611156143143121</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1365127110394248</v>
+        <v>0.1406377559053828</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>15</v>
@@ -10905,19 +10905,19 @@
         <v>11386</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>6582</v>
+        <v>6373</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>18563</v>
+        <v>18592</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1076457260346211</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06222922246755867</v>
+        <v>0.06025371858164257</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1754985025169507</v>
+        <v>0.175766165516852</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>23</v>
@@ -10926,19 +10926,19 @@
         <v>19635</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>13128</v>
+        <v>12379</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>29416</v>
+        <v>29188</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.09239722345342562</v>
+        <v>0.09239722345342563</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06177656060491819</v>
+        <v>0.05825193252217432</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1384201111660681</v>
+        <v>0.1373503825748195</v>
       </c>
     </row>
     <row r="32">
@@ -10959,19 +10959,19 @@
         <v>285401</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>266606</v>
+        <v>267142</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>303249</v>
+        <v>303889</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7484121390726256</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6991260945850604</v>
+        <v>0.7005325011712995</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7952161142674987</v>
+        <v>0.7968938379677877</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>369</v>
@@ -10980,19 +10980,19 @@
         <v>265404</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>250203</v>
+        <v>251637</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>279517</v>
+        <v>279116</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7752763966288646</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.730872359977396</v>
+        <v>0.7350602030757026</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8165005038636576</v>
+        <v>0.8153312131995183</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>613</v>
@@ -11001,19 +11001,19 @@
         <v>550804</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>527037</v>
+        <v>526152</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>573555</v>
+        <v>571769</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7611202636332354</v>
+        <v>0.7611202636332353</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7282770644962686</v>
+        <v>0.7270544436719366</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7925580916190705</v>
+        <v>0.7900894126407971</v>
       </c>
     </row>
     <row r="33">
@@ -11030,19 +11030,19 @@
         <v>236341</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>214333</v>
+        <v>213048</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>256727</v>
+        <v>256388</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.6197621457950711</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5620498706155886</v>
+        <v>0.5586806618353195</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6732208399647258</v>
+        <v>0.6723320988233139</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>309</v>
@@ -11051,19 +11051,19 @@
         <v>230760</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>214990</v>
+        <v>215134</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>243937</v>
+        <v>244928</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6740755676998241</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.6280118909922439</v>
+        <v>0.6284303031944684</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.7125669350598767</v>
+        <v>0.7154623729347372</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>510</v>
@@ -11072,19 +11072,19 @@
         <v>467100</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>443176</v>
+        <v>442428</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>493064</v>
+        <v>491324</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.6454550848027323</v>
+        <v>0.6454550848027325</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6123956167146042</v>
+        <v>0.611361703394017</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6813324869434821</v>
+        <v>0.6789274817602657</v>
       </c>
     </row>
     <row r="34">
@@ -11101,19 +11101,19 @@
         <v>137708</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>118309</v>
+        <v>119411</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>162199</v>
+        <v>161966</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3638410306373315</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3125884798442997</v>
+        <v>0.3154996244042568</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4285503202460889</v>
+        <v>0.4279347521826236</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>195</v>
@@ -11122,19 +11122,19 @@
         <v>146007</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>127752</v>
+        <v>129943</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>161606</v>
+        <v>163316</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4273848151400862</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.373950687187419</v>
+        <v>0.3803615760881017</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4730438978071196</v>
+        <v>0.4780508569766415</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>303</v>
@@ -11143,19 +11143,19 @@
         <v>283715</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>254339</v>
+        <v>256688</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>306404</v>
+        <v>311134</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3939869086081155</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.353192977467069</v>
+        <v>0.3564550804201865</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4254943478501888</v>
+        <v>0.4320637545183581</v>
       </c>
     </row>
     <row r="35">
@@ -11172,19 +11172,19 @@
         <v>241485</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>220400</v>
+        <v>221227</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>263070</v>
+        <v>262810</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.6332515373426789</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.5779583043096858</v>
+        <v>0.5801276829931096</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6898521422294938</v>
+        <v>0.6891720731897039</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>291</v>
@@ -11193,19 +11193,19 @@
         <v>208330</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>192628</v>
+        <v>193169</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>223046</v>
+        <v>224008</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.6085551280499311</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.5626876201391734</v>
+        <v>0.5642689367697982</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.6515439059377878</v>
+        <v>0.6543531439003913</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>499</v>
@@ -11214,19 +11214,19 @@
         <v>449815</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>422855</v>
+        <v>422285</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>473546</v>
+        <v>477186</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.6215689123963156</v>
+        <v>0.6215689123963158</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.5843152915122648</v>
+        <v>0.5835275180138557</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.6543620319724296</v>
+        <v>0.6593922509756256</v>
       </c>
     </row>
     <row r="36">
@@ -11243,19 +11243,19 @@
         <v>97134</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>77313</v>
+        <v>77852</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>119204</v>
+        <v>117718</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2547155619140448</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2027387465668608</v>
+        <v>0.2041539082889035</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3125912677025443</v>
+        <v>0.3086932578046629</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>149</v>
@@ -11264,19 +11264,19 @@
         <v>114915</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>99810</v>
+        <v>99845</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>131367</v>
+        <v>130090</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3356805110078163</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2915577825683068</v>
+        <v>0.2916600738202063</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3837390585694817</v>
+        <v>0.3800073746053139</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>223</v>
@@ -11285,19 +11285,19 @@
         <v>212049</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>185113</v>
+        <v>189857</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>236325</v>
+        <v>238409</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.293015993480899</v>
+        <v>0.2930159934808991</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.255794784493149</v>
+        <v>0.2623504242230487</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3265617220415276</v>
+        <v>0.3294420209424515</v>
       </c>
     </row>
     <row r="37">
@@ -11314,19 +11314,19 @@
         <v>77438</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>59821</v>
+        <v>60302</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>96612</v>
+        <v>98185</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2030657952869593</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1568703691854462</v>
+        <v>0.1581318524584129</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2533460967370677</v>
+        <v>0.2574734161691136</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>132</v>
@@ -11335,19 +11335,19 @@
         <v>95488</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>82015</v>
+        <v>83236</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>109335</v>
+        <v>111810</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2789307416762572</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.239574652690845</v>
+        <v>0.2431408857475938</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3193804785426804</v>
+        <v>0.3266112253228539</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>193</v>
@@ -11356,19 +11356,19 @@
         <v>172925</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>150762</v>
+        <v>150333</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>197805</v>
+        <v>195851</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.2389536729430189</v>
+        <v>0.238953672943019</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2083285225840051</v>
+        <v>0.2077348694847579</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2733335754438057</v>
+        <v>0.2706334494887445</v>
       </c>
     </row>
     <row r="38">
@@ -11385,19 +11385,19 @@
         <v>39513</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>28631</v>
+        <v>27353</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>56905</v>
+        <v>54006</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1036160249132279</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07508073457716644</v>
+        <v>0.07172814440834813</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1492238233511179</v>
+        <v>0.1416208733048175</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>41</v>
@@ -11406,19 +11406,19 @@
         <v>31838</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>23129</v>
+        <v>22865</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>43029</v>
+        <v>41924</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.0930011943178546</v>
+        <v>0.09300119431785459</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.06756242123815775</v>
+        <v>0.06678987972572774</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1256912531364117</v>
+        <v>0.1224636872196535</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>76</v>
@@ -11427,19 +11427,19 @@
         <v>71351</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>56655</v>
+        <v>56717</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>89982</v>
+        <v>91803</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.09859468422985404</v>
+        <v>0.09859468422985405</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.07828796779680422</v>
+        <v>0.0783738043201891</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1243406044718341</v>
+        <v>0.1268568491459049</v>
       </c>
     </row>
     <row r="39">
